--- a/union_data.xlsx
+++ b/union_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexBusch\Documents\GitHub\industrial_action\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B61C27D-1025-4A32-A847-8DBF752D68D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD7BE9E-44DB-4C88-A9C5-9B91E485D7F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10500" xr2:uid="{55DB6E5A-4C35-45C3-9C4F-265E93AFAEF7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="317">
   <si>
     <t>U-Union</t>
   </si>
@@ -57,12 +57,6 @@
     <t>https://netkey40.igmetall.de/homepages/aachen/</t>
   </si>
   <si>
-    <t>https://www.aalen.igm.de/</t>
-  </si>
-  <si>
-    <t>https://www.albstadt.igm.de/</t>
-  </si>
-  <si>
     <t>Alfeld-Hameln-Hildesheim</t>
   </si>
   <si>
@@ -78,18 +72,12 @@
     <t>url3</t>
   </si>
   <si>
-    <t>https://allgaeu.igmetall.de/</t>
-  </si>
-  <si>
     <t>Allgaeu</t>
   </si>
   <si>
     <t>url4</t>
   </si>
   <si>
-    <t>https://amberg.igmetall.de/</t>
-  </si>
-  <si>
     <t>Amberg</t>
   </si>
   <si>
@@ -108,9 +96,6 @@
     <t>url1</t>
   </si>
   <si>
-    <t>https://aschaffenburg.igmetall.de/</t>
-  </si>
-  <si>
     <t>Aschaffenburg</t>
   </si>
   <si>
@@ -126,9 +111,6 @@
     <t>Bad-Kreuznach</t>
   </si>
   <si>
-    <t>https://bamberg.igmetall.de/</t>
-  </si>
-  <si>
     <t>Bamberg</t>
   </si>
   <si>
@@ -171,15 +153,9 @@
     <t>Braunschweig</t>
   </si>
   <si>
-    <t>https://bremen.igmetall.de/</t>
-  </si>
-  <si>
     <t>Bremen</t>
   </si>
   <si>
-    <t>https://www.bruchsal.igm.de/</t>
-  </si>
-  <si>
     <t>Bruchsal</t>
   </si>
   <si>
@@ -246,36 +222,21 @@
     <t>Erfurt</t>
   </si>
   <si>
-    <t>https://erlangen.igmetall.de/</t>
-  </si>
-  <si>
     <t>Erlangen</t>
   </si>
   <si>
-    <t>https://www.esslingen.igm.de/</t>
-  </si>
-  <si>
     <t>Esslingen</t>
   </si>
   <si>
-    <t>https://flensburg.igmetall.de/</t>
-  </si>
-  <si>
     <t>Frankfurt</t>
   </si>
   <si>
     <t>Flensburg</t>
   </si>
   <si>
-    <t>https://www.freiburg.igm.de/</t>
-  </si>
-  <si>
     <t>Freiburg</t>
   </si>
   <si>
-    <t>https://www.freudenstadt.igm.de/</t>
-  </si>
-  <si>
     <t>Freudenstadt</t>
   </si>
   <si>
@@ -285,9 +246,6 @@
     <t>Friedrichshafen-Oberschwaben</t>
   </si>
   <si>
-    <t>https://www.gaggenau.igm.de/</t>
-  </si>
-  <si>
     <t>Gaggenau</t>
   </si>
   <si>
@@ -300,9 +258,6 @@
     <t>Jena-Saalfeld-Gera</t>
   </si>
   <si>
-    <t>https://www.goeppingen-geislingen.igm.de/</t>
-  </si>
-  <si>
     <t>Goeppingen-Geislingen</t>
   </si>
   <si>
@@ -363,21 +318,12 @@
     <t>url13</t>
   </si>
   <si>
-    <t>https://www.heidelberg.igm.de/</t>
-  </si>
-  <si>
     <t>Heidelberg</t>
   </si>
   <si>
-    <t>https://www.heidenheim.igm.de/</t>
-  </si>
-  <si>
     <t>Heidenheim</t>
   </si>
   <si>
-    <t>https://www.neckarsulm.igm.de/</t>
-  </si>
-  <si>
     <t>Heilbronn-Neckarsulm</t>
   </si>
   <si>
@@ -417,15 +363,9 @@
     <t>Kaiserslautern</t>
   </si>
   <si>
-    <t>https://www.karlsruhe.igm.de/</t>
-  </si>
-  <si>
     <t>Karlsruhe</t>
   </si>
   <si>
-    <t>https://kiel-neumuenster.igmetall.de/</t>
-  </si>
-  <si>
     <t>Kiel-Neumuenster</t>
   </si>
   <si>
@@ -474,15 +414,9 @@
     <t>url14</t>
   </si>
   <si>
-    <t>https://www.loerrach.igm.de/</t>
-  </si>
-  <si>
     <t>Loerrach</t>
   </si>
   <si>
-    <t>https://luebeck-wismar.igmetall.de/</t>
-  </si>
-  <si>
     <t>Luebeck-Wismar</t>
   </si>
   <si>
@@ -513,9 +447,6 @@
     <t>Mainz-Wiesbaden</t>
   </si>
   <si>
-    <t>https://www.mannheim.igm.de/</t>
-  </si>
-  <si>
     <t>Mannheim</t>
   </si>
   <si>
@@ -549,15 +480,9 @@
     <t>Muelheim-Essen-Oberhausen</t>
   </si>
   <si>
-    <t>https://www.offenburg.igm.de/</t>
-  </si>
-  <si>
     <t>Offenburg</t>
   </si>
   <si>
-    <t>https://oldenburg-wilhelmshaven.igmetall.de/</t>
-  </si>
-  <si>
     <t>Oldenburg-Wilhelmshaven</t>
   </si>
   <si>
@@ -594,9 +519,6 @@
     <t>Offenbach</t>
   </si>
   <si>
-    <t>https://olpe.igmetall.de/</t>
-  </si>
-  <si>
     <t>Olpe</t>
   </si>
   <si>
@@ -621,9 +543,6 @@
     <t>Ostbrandenburg</t>
   </si>
   <si>
-    <t>https://ostoberfranken.igmetall.de/</t>
-  </si>
-  <si>
     <t>Oberfranken</t>
   </si>
   <si>
@@ -654,9 +573,6 @@
     <t>url23</t>
   </si>
   <si>
-    <t>https://regensburg.igmetall.de/</t>
-  </si>
-  <si>
     <t>Regensburg</t>
   </si>
   <si>
@@ -675,15 +591,9 @@
     <t>url24</t>
   </si>
   <si>
-    <t>https://rendsburg.igmetall.de/</t>
-  </si>
-  <si>
     <t>Rendsburg</t>
   </si>
   <si>
-    <t>https://www.reutlingen.igm.de/</t>
-  </si>
-  <si>
     <t>Reutlingen-Tuebingen</t>
   </si>
   <si>
@@ -705,9 +615,6 @@
     <t>Rosenheim</t>
   </si>
   <si>
-    <t>https://rostock-schwerin.igmetall.de/</t>
-  </si>
-  <si>
     <t>Rostock-Schwerin</t>
   </si>
   <si>
@@ -741,21 +648,12 @@
     <t>Schwabach</t>
   </si>
   <si>
-    <t>https://www.schwaebisch-gmuend.igm.de/</t>
-  </si>
-  <si>
     <t>Schwaebisch-Gmuend</t>
   </si>
   <si>
-    <t>https://www.schwaebisch-hall.igm.de/</t>
-  </si>
-  <si>
     <t>Schaebisch-Hall</t>
   </si>
   <si>
-    <t>https://schweinfurt.igmetall.de/</t>
-  </si>
-  <si>
     <t>Schweinfurt</t>
   </si>
   <si>
@@ -765,9 +663,6 @@
     <t>Siegen</t>
   </si>
   <si>
-    <t>https://www.singen.igm.de/</t>
-  </si>
-  <si>
     <t>Singen</t>
   </si>
   <si>
@@ -777,9 +672,6 @@
     <t>Stralsund-Neubrandenburg</t>
   </si>
   <si>
-    <t>https://www.stuttgart.igm.de/</t>
-  </si>
-  <si>
     <t>Stuttgart</t>
   </si>
   <si>
@@ -795,18 +687,12 @@
     <t>Suehl-Sonneberg</t>
   </si>
   <si>
-    <t>https://www.tauberbischofsheim.igm.de/</t>
-  </si>
-  <si>
     <t>Tauberbischofsheim</t>
   </si>
   <si>
     <t>Trier</t>
   </si>
   <si>
-    <t>https://www.ulm.igm.de/</t>
-  </si>
-  <si>
     <t>Ulm</t>
   </si>
   <si>
@@ -816,9 +702,6 @@
     <t>Unna</t>
   </si>
   <si>
-    <t>https://unterelbe.igmetall.de/</t>
-  </si>
-  <si>
     <t>Unterelbe</t>
   </si>
   <si>
@@ -831,18 +714,12 @@
     <t>url26</t>
   </si>
   <si>
-    <t>https://www.villingen-schwenningen.igm.de/</t>
-  </si>
-  <si>
     <t>Villingen-Schwenningen</t>
   </si>
   <si>
     <t>Voelklingen</t>
   </si>
   <si>
-    <t>https://weilheim.igmetall.de/</t>
-  </si>
-  <si>
     <t>Weilheim</t>
   </si>
   <si>
@@ -852,15 +729,9 @@
     <t>Weser-Elbe</t>
   </si>
   <si>
-    <t>https://wesermarsch.igmetall.de/</t>
-  </si>
-  <si>
     <t>Wesermarsch</t>
   </si>
   <si>
-    <t>https://westmittelfranken.igmetall.de/</t>
-  </si>
-  <si>
     <t>Westmittelfranken</t>
   </si>
   <si>
@@ -964,6 +835,147 @@
   </si>
   <si>
     <t>https://www.igmetall-voelklingen.de/news/meldungsarchiv/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no news? </t>
+  </si>
+  <si>
+    <t>https://aschaffenburg.igmetall.de/aktuell</t>
+  </si>
+  <si>
+    <t>https://amberg.igmetall.de/aktuell</t>
+  </si>
+  <si>
+    <t>https://allgaeu.igmetall.de/aktuell</t>
+  </si>
+  <si>
+    <t>https://www.aalen.igm.de/news/</t>
+  </si>
+  <si>
+    <t>https://www.albstadt.igm.de/news/</t>
+  </si>
+  <si>
+    <t>https://www.bruchsal.igm.de/news/</t>
+  </si>
+  <si>
+    <t>https://www.esslingen.igm.de/news/</t>
+  </si>
+  <si>
+    <t>https://www.freiburg.igm.de/news/</t>
+  </si>
+  <si>
+    <t>https://www.freudenstadt.igm.de/news/</t>
+  </si>
+  <si>
+    <t>https://www.gaggenau.igm.de/news/</t>
+  </si>
+  <si>
+    <t>https://www.villingen-schwenningen.igm.de/news/</t>
+  </si>
+  <si>
+    <t>https://www.ulm.igm.de/news/</t>
+  </si>
+  <si>
+    <t>https://www.tauberbischofsheim.igm.de/news/</t>
+  </si>
+  <si>
+    <t>https://www.stuttgart.igm.de/news/</t>
+  </si>
+  <si>
+    <t>https://www.singen.igm.de/news/</t>
+  </si>
+  <si>
+    <t>https://www.schwaebisch-hall.igm.de/news/</t>
+  </si>
+  <si>
+    <t>https://www.schwaebisch-gmuend.igm.de/news/</t>
+  </si>
+  <si>
+    <t>https://www.reutlingen.igm.de/news/</t>
+  </si>
+  <si>
+    <t>https://www.offenburg.igm.de/news/</t>
+  </si>
+  <si>
+    <t>https://www.mannheim.igm.de/news/</t>
+  </si>
+  <si>
+    <t>https://www.loerrach.igm.de/news/</t>
+  </si>
+  <si>
+    <t>https://www.karlsruhe.igm.de/news/</t>
+  </si>
+  <si>
+    <t>https://www.neckarsulm.igm.de/news/</t>
+  </si>
+  <si>
+    <t>https://www.heidenheim.igm.de/news/</t>
+  </si>
+  <si>
+    <t>https://www.heidelberg.igm.de/news/</t>
+  </si>
+  <si>
+    <t>https://www.goeppingen-geislingen.igm.de/news/</t>
+  </si>
+  <si>
+    <t>urlby1</t>
+  </si>
+  <si>
+    <t>urlby2</t>
+  </si>
+  <si>
+    <t>https://flensburg.igmetall.de/aktuell</t>
+  </si>
+  <si>
+    <t>https://kiel-neumuenster.igmetall.de/aktuelle-meldungen</t>
+  </si>
+  <si>
+    <t>https://luebeck-wismar.igmetall.de/aktuell</t>
+  </si>
+  <si>
+    <t>https://oldenburg-wilhelmshaven.igmetall.de/aktuell</t>
+  </si>
+  <si>
+    <t>https://olpe.igmetall.de/aktuell</t>
+  </si>
+  <si>
+    <t>https://ostoberfranken.igmetall.de/aktuell</t>
+  </si>
+  <si>
+    <t>https://regensburg.igmetall.de/aktuell</t>
+  </si>
+  <si>
+    <t>https://rendsburg.igmetall.de/aktuell</t>
+  </si>
+  <si>
+    <t>https://rostock-schwerin.igmetall.de/aktuell</t>
+  </si>
+  <si>
+    <t>https://erlangen.igmetall.de/aktuell</t>
+  </si>
+  <si>
+    <t>https://bremen.igmetall.de/aktuell</t>
+  </si>
+  <si>
+    <t>https://bamberg.igmetall.de/aktuell</t>
+  </si>
+  <si>
+    <t>https://schweinfurt.igmetall.de/aktuell</t>
+  </si>
+  <si>
+    <t>https://unterelbe.igmetall.de/aktuell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsure whether same structure </t>
+  </si>
+  <si>
+    <t>https://weilheim.igmetall.de/aktuell</t>
+  </si>
+  <si>
+    <t>https://wesermarsch.igmetall.de/aktuell</t>
+  </si>
+  <si>
+    <t>https://westmittelfranken.igmetall.de/aktuell</t>
   </si>
 </sst>
 </file>
@@ -1329,13 +1341,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF38B2E-D1B8-4839-8784-A9099D704EE1}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1352,7 +1364,7 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1369,7 +1381,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1380,13 +1392,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>274</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1396,14 +1408,14 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
+      <c r="C4" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1414,13 +1426,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1431,13 +1443,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>273</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1448,13 +1460,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1465,13 +1477,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1481,14 +1493,14 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
+      <c r="C9" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1499,13 +1511,16 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>298</v>
+      </c>
+      <c r="F10" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1516,13 +1531,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1533,13 +1548,13 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>310</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1550,13 +1565,13 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1567,13 +1582,13 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1584,13 +1599,13 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1601,13 +1616,13 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1618,13 +1633,13 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1635,13 +1650,13 @@
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1651,14 +1666,14 @@
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
-        <v>48</v>
+      <c r="C19" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1668,14 +1683,14 @@
       <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="C20" t="s">
-        <v>50</v>
+      <c r="C20" s="1" t="s">
+        <v>276</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1686,13 +1701,13 @@
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1703,13 +1718,13 @@
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1720,13 +1735,13 @@
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1737,13 +1752,13 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1754,13 +1769,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1771,13 +1786,13 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1788,13 +1803,13 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1805,13 +1820,13 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1822,13 +1837,13 @@
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1839,13 +1854,13 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1856,13 +1871,13 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1873,13 +1888,13 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1890,13 +1905,13 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1907,13 +1922,13 @@
         <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>291</v>
+        <v>248</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1924,13 +1939,13 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>308</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1940,14 +1955,14 @@
       <c r="B36" t="s">
         <v>3</v>
       </c>
-      <c r="C36" t="s">
-        <v>75</v>
+      <c r="C36" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="D36" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1958,13 +1973,13 @@
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1975,13 +1990,13 @@
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E38" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1991,14 +2006,14 @@
       <c r="B39" t="s">
         <v>3</v>
       </c>
-      <c r="C39" t="s">
-        <v>80</v>
+      <c r="C39" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2008,14 +2023,14 @@
       <c r="B40" t="s">
         <v>3</v>
       </c>
-      <c r="C40" t="s">
-        <v>82</v>
+      <c r="C40" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="D40" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2026,10 +2041,10 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2039,14 +2054,14 @@
       <c r="B42" t="s">
         <v>3</v>
       </c>
-      <c r="C42" t="s">
-        <v>86</v>
+      <c r="C42" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2057,13 +2072,13 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2074,13 +2089,13 @@
         <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E44" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2090,14 +2105,14 @@
       <c r="B45" t="s">
         <v>3</v>
       </c>
-      <c r="C45" t="s">
-        <v>91</v>
+      <c r="C45" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="D45" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2108,16 +2123,16 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D46" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2128,13 +2143,13 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D47" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E47" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2145,13 +2160,13 @@
         <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E48" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2162,16 +2177,16 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D49" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E49" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F49" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2182,13 +2197,13 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="E50" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2199,13 +2214,13 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E51" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2216,13 +2231,13 @@
         <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2233,13 +2248,13 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E53" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2249,14 +2264,14 @@
       <c r="B54" t="s">
         <v>3</v>
       </c>
-      <c r="C54" t="s">
-        <v>112</v>
+      <c r="C54" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="D54" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2266,14 +2281,14 @@
       <c r="B55" t="s">
         <v>3</v>
       </c>
-      <c r="C55" t="s">
-        <v>114</v>
+      <c r="C55" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2283,14 +2298,14 @@
       <c r="B56" t="s">
         <v>3</v>
       </c>
-      <c r="C56" t="s">
-        <v>116</v>
+      <c r="C56" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="D56" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2301,13 +2316,13 @@
         <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="D57" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="E57" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2318,13 +2333,13 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D58" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E58" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2335,13 +2350,13 @@
         <v>3</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="D59" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="E59" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2352,13 +2367,13 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D60" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2369,13 +2384,13 @@
         <v>3</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="D61" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E61" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2385,14 +2400,14 @@
       <c r="B62" t="s">
         <v>3</v>
       </c>
-      <c r="C62" t="s">
-        <v>130</v>
+      <c r="C62" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="D62" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2403,13 +2418,13 @@
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>132</v>
+        <v>300</v>
       </c>
       <c r="D63" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="E63" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2420,13 +2435,13 @@
         <v>3</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="D64" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E64" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2437,13 +2452,13 @@
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D65" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="E65" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2454,13 +2469,13 @@
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D66" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E66" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2471,13 +2486,13 @@
         <v>3</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="D67" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E67" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2488,13 +2503,13 @@
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="D68" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E68" t="s">
-        <v>35</v>
+        <v>297</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2505,13 +2520,13 @@
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="D69" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2522,13 +2537,13 @@
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="D70" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E70" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2538,14 +2553,14 @@
       <c r="B71" t="s">
         <v>3</v>
       </c>
-      <c r="C71" t="s">
-        <v>149</v>
+      <c r="C71" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="D71" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="E71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2556,13 +2571,13 @@
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="D72" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="E72" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2573,13 +2588,13 @@
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="D73" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E73" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2590,13 +2605,13 @@
         <v>3</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D74" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E74" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2607,13 +2622,13 @@
         <v>3</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="D75" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="E75" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2624,13 +2639,13 @@
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="D76" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="E76" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2641,13 +2656,13 @@
         <v>3</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="D77" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="E77" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2657,14 +2672,14 @@
       <c r="B78" t="s">
         <v>3</v>
       </c>
-      <c r="C78" t="s">
-        <v>162</v>
+      <c r="C78" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="D78" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="E78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -2675,13 +2690,13 @@
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="D79" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="E79" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2692,13 +2707,13 @@
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="D80" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="E80" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -2709,13 +2724,13 @@
         <v>3</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="D81" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="E81" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -2726,13 +2741,13 @@
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D82" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="E82" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -2743,13 +2758,13 @@
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="D83" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="E83" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -2759,14 +2774,14 @@
       <c r="B84" t="s">
         <v>3</v>
       </c>
-      <c r="C84" t="s">
-        <v>174</v>
+      <c r="C84" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="D84" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="E84" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2777,13 +2792,13 @@
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>302</v>
       </c>
       <c r="D85" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -2794,13 +2809,13 @@
         <v>3</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="D86" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="E86" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -2811,13 +2826,13 @@
         <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="D87" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="E87" t="s">
-        <v>35</v>
+        <v>297</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -2828,13 +2843,13 @@
         <v>3</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="D88" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="E88" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2845,13 +2860,13 @@
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="D89" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="E89" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2862,13 +2877,13 @@
         <v>3</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="D90" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="E90" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -2879,13 +2894,13 @@
         <v>3</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="D91" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="E91" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -2896,13 +2911,13 @@
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="D92" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="E92" t="s">
-        <v>35</v>
+        <v>297</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -2913,13 +2928,13 @@
         <v>3</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="D93" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="E93" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -2930,13 +2945,13 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>189</v>
+        <v>303</v>
       </c>
       <c r="D94" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -2947,13 +2962,13 @@
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="D95" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="E95" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -2964,16 +2979,16 @@
         <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="D96" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="E96" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2981,16 +2996,16 @@
         <v>3</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="D97" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="E97" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2998,16 +3013,16 @@
         <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="D98" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="E98" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3015,16 +3030,16 @@
         <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>198</v>
+        <v>304</v>
       </c>
       <c r="D99" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3032,16 +3047,16 @@
         <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="D100" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="E100" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3049,16 +3064,16 @@
         <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="D101" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="E101" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3066,16 +3081,19 @@
         <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="D102" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+      <c r="F102" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3083,16 +3101,16 @@
         <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="D103" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="E103" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3100,16 +3118,16 @@
         <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
       <c r="D104" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="E104" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3117,16 +3135,16 @@
         <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="D105" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="E105" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3134,16 +3152,16 @@
         <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="D106" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="E106" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3151,33 +3169,33 @@
         <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>216</v>
+        <v>306</v>
       </c>
       <c r="D107" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="E107" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
       </c>
-      <c r="C108" t="s">
-        <v>218</v>
+      <c r="C108" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="D108" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="E108" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3185,16 +3203,16 @@
         <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="D109" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="E109" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3202,16 +3220,16 @@
         <v>3</v>
       </c>
       <c r="C110" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="D110" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="E110" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3219,16 +3237,16 @@
         <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="D111" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="E111" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3236,13 +3254,13 @@
         <v>3</v>
       </c>
       <c r="C112" t="s">
-        <v>226</v>
+        <v>307</v>
       </c>
       <c r="D112" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="E112" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -3253,16 +3271,16 @@
         <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="D113" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="E113" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="F113" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -3273,13 +3291,13 @@
         <v>3</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="D114" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="E114" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -3290,13 +3308,13 @@
         <v>3</v>
       </c>
       <c r="C115" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="D115" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="E115" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -3307,13 +3325,16 @@
         <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="D116" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="E116" t="s">
-        <v>35</v>
+        <v>298</v>
+      </c>
+      <c r="F116" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -3323,14 +3344,14 @@
       <c r="B117" t="s">
         <v>3</v>
       </c>
-      <c r="C117" t="s">
-        <v>238</v>
+      <c r="C117" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="D117" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="E117" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -3340,14 +3361,14 @@
       <c r="B118" t="s">
         <v>3</v>
       </c>
-      <c r="C118" t="s">
-        <v>240</v>
+      <c r="C118" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="D118" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="E118" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -3358,13 +3379,13 @@
         <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>242</v>
+        <v>311</v>
       </c>
       <c r="D119" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="E119" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -3375,13 +3396,13 @@
         <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="D120" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="E120" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -3391,14 +3412,14 @@
       <c r="B121" t="s">
         <v>3</v>
       </c>
-      <c r="C121" t="s">
-        <v>246</v>
+      <c r="C121" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="D121" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="E121" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -3409,13 +3430,13 @@
         <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="D122" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="E122" t="s">
-        <v>35</v>
+        <v>297</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -3425,14 +3446,14 @@
       <c r="B123" t="s">
         <v>3</v>
       </c>
-      <c r="C123" t="s">
-        <v>250</v>
+      <c r="C123" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="D123" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="E123" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -3443,13 +3464,13 @@
         <v>3</v>
       </c>
       <c r="C124" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="D124" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="E124" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -3460,13 +3481,13 @@
         <v>3</v>
       </c>
       <c r="C125" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="D125" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="E125" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -3476,14 +3497,14 @@
       <c r="B126" t="s">
         <v>3</v>
       </c>
-      <c r="C126" t="s">
-        <v>256</v>
+      <c r="C126" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="D126" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="E126" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -3494,13 +3515,13 @@
         <v>3</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
       <c r="D127" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="E127" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -3510,17 +3531,17 @@
       <c r="B128" t="s">
         <v>3</v>
       </c>
-      <c r="C128" t="s">
-        <v>259</v>
+      <c r="C128" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="D128" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="E128" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3528,16 +3549,16 @@
         <v>3</v>
       </c>
       <c r="C129" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="D129" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="E129" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3545,16 +3566,19 @@
         <v>3</v>
       </c>
       <c r="C130" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="D130" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="E130" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="F130" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3562,33 +3586,33 @@
         <v>3</v>
       </c>
       <c r="C131" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="D131" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="E131" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>3</v>
       </c>
-      <c r="C132" t="s">
-        <v>268</v>
+      <c r="C132" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="D132" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="E132" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3596,16 +3620,16 @@
         <v>3</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="D133" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="E133" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3613,16 +3637,16 @@
         <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="D134" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="E134" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3630,16 +3654,16 @@
         <v>3</v>
       </c>
       <c r="C135" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="D135" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="E135" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3647,16 +3671,16 @@
         <v>3</v>
       </c>
       <c r="C136" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="D136" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="E136" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3664,16 +3688,16 @@
         <v>3</v>
       </c>
       <c r="C137" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="D137" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="E137" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3681,16 +3705,16 @@
         <v>3</v>
       </c>
       <c r="C138" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="D138" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="E138" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3698,16 +3722,16 @@
         <v>3</v>
       </c>
       <c r="C139" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="D139" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="E139" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3715,49 +3739,70 @@
         <v>3</v>
       </c>
       <c r="C140" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="D140" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="E140" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C37" r:id="rId1" xr:uid="{9EF97FA3-9762-4CB9-89F8-09C280C254EB}"/>
-    <hyperlink ref="C23" r:id="rId2" xr:uid="{1D55898C-4F2D-4C0E-A008-438FFE5757C2}"/>
-    <hyperlink ref="C22" r:id="rId3" xr:uid="{7D0EDC23-B6B4-424D-BE3C-5504B6BEE94F}"/>
-    <hyperlink ref="C21" r:id="rId4" xr:uid="{084D4D62-3E32-4E56-A49E-D9FD2910E935}"/>
-    <hyperlink ref="C11" r:id="rId5" xr:uid="{71A6CA32-5BE0-499C-A09F-18CB0D14BDD1}"/>
-    <hyperlink ref="C14" r:id="rId6" xr:uid="{0DC27EAF-1FFB-4549-8CC3-23F0B16F100E}"/>
-    <hyperlink ref="C18" r:id="rId7" xr:uid="{E9458462-4BB7-45B6-BD01-03212CCA2011}"/>
-    <hyperlink ref="C25" r:id="rId8" xr:uid="{52FB9CCF-F3A3-4508-B265-B9A16B548A16}"/>
-    <hyperlink ref="C29" r:id="rId9" xr:uid="{FCE70F01-ACB6-417A-851B-875462CDCEC1}"/>
-    <hyperlink ref="C34" r:id="rId10" xr:uid="{631D216A-E606-41C0-A9DC-7CE4F4F2178F}"/>
-    <hyperlink ref="C38" r:id="rId11" xr:uid="{16008171-E71B-4195-AAED-EE5D63EC8FAD}"/>
-    <hyperlink ref="C44" r:id="rId12" xr:uid="{1F619A34-17D8-4242-8D8F-81DA12B368DA}"/>
-    <hyperlink ref="C48" r:id="rId13" xr:uid="{06424DEF-18C4-41DE-93B9-2934AC1DAD4A}"/>
-    <hyperlink ref="C52" r:id="rId14" xr:uid="{0F85CBB3-EAF2-439C-A897-6199EB9B0898}"/>
-    <hyperlink ref="C57" r:id="rId15" xr:uid="{10C6FB81-7248-4A40-B681-30A58147A34F}"/>
-    <hyperlink ref="C59" r:id="rId16" xr:uid="{06153331-EFAF-4AF9-BBD3-96E5CA4C7A60}"/>
-    <hyperlink ref="C61" r:id="rId17" xr:uid="{C6C2295E-BD9B-4346-9A9D-ED8D07A243EF}"/>
-    <hyperlink ref="C64" r:id="rId18" xr:uid="{64A7A1E6-52BC-4C21-BDD5-B9696D405E82}"/>
-    <hyperlink ref="C67" r:id="rId19" xr:uid="{76EEFD13-22CB-4139-8263-2F2986F90965}"/>
-    <hyperlink ref="C74" r:id="rId20" xr:uid="{251D81FE-761E-4AA5-945E-113B12680D81}"/>
-    <hyperlink ref="C75" r:id="rId21" xr:uid="{6AD2EA75-DF93-4A05-9D05-9A18F061A376}"/>
-    <hyperlink ref="C77" r:id="rId22" xr:uid="{885E4273-4836-4C52-8CF6-46996BC68CE8}"/>
-    <hyperlink ref="C81" r:id="rId23" xr:uid="{1920D51F-FB1A-46AD-AA2C-D33BF1709B91}"/>
-    <hyperlink ref="C86" r:id="rId24" xr:uid="{1854EF3F-6E69-4D17-B7EA-F60E5748DD02}"/>
-    <hyperlink ref="C88" r:id="rId25" xr:uid="{9F0F6481-ABE5-4F4A-894A-0F0F7A8A1BB1}"/>
-    <hyperlink ref="C90" r:id="rId26" xr:uid="{7EA9F407-5A92-445B-B0D4-99EF2E534E18}"/>
-    <hyperlink ref="C91" r:id="rId27" xr:uid="{84AE1136-F592-426F-933B-AFB37D5F27E2}"/>
-    <hyperlink ref="C93" r:id="rId28" xr:uid="{77D0C496-04B7-4A96-BD42-B0A5EBABB068}"/>
-    <hyperlink ref="C97" r:id="rId29" xr:uid="{536AAD99-A084-4A7F-9747-E843EB5F4D07}"/>
-    <hyperlink ref="C114" r:id="rId30" xr:uid="{AA9729B9-E53A-47AA-AEED-C0E4537E429B}"/>
-    <hyperlink ref="C127" r:id="rId31" xr:uid="{39218BE5-6D13-42B0-88EC-7FD8428E4F55}"/>
-    <hyperlink ref="C133" r:id="rId32" xr:uid="{63897912-784D-4376-A333-16118A2AB84A}"/>
+    <hyperlink ref="C23" r:id="rId1" xr:uid="{1D55898C-4F2D-4C0E-A008-438FFE5757C2}"/>
+    <hyperlink ref="C22" r:id="rId2" xr:uid="{7D0EDC23-B6B4-424D-BE3C-5504B6BEE94F}"/>
+    <hyperlink ref="C21" r:id="rId3" xr:uid="{084D4D62-3E32-4E56-A49E-D9FD2910E935}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{71A6CA32-5BE0-499C-A09F-18CB0D14BDD1}"/>
+    <hyperlink ref="C14" r:id="rId5" xr:uid="{0DC27EAF-1FFB-4549-8CC3-23F0B16F100E}"/>
+    <hyperlink ref="C18" r:id="rId6" xr:uid="{E9458462-4BB7-45B6-BD01-03212CCA2011}"/>
+    <hyperlink ref="C25" r:id="rId7" xr:uid="{52FB9CCF-F3A3-4508-B265-B9A16B548A16}"/>
+    <hyperlink ref="C29" r:id="rId8" xr:uid="{FCE70F01-ACB6-417A-851B-875462CDCEC1}"/>
+    <hyperlink ref="C34" r:id="rId9" xr:uid="{631D216A-E606-41C0-A9DC-7CE4F4F2178F}"/>
+    <hyperlink ref="C38" r:id="rId10" xr:uid="{16008171-E71B-4195-AAED-EE5D63EC8FAD}"/>
+    <hyperlink ref="C44" r:id="rId11" xr:uid="{1F619A34-17D8-4242-8D8F-81DA12B368DA}"/>
+    <hyperlink ref="C48" r:id="rId12" xr:uid="{06424DEF-18C4-41DE-93B9-2934AC1DAD4A}"/>
+    <hyperlink ref="C52" r:id="rId13" xr:uid="{0F85CBB3-EAF2-439C-A897-6199EB9B0898}"/>
+    <hyperlink ref="C57" r:id="rId14" xr:uid="{10C6FB81-7248-4A40-B681-30A58147A34F}"/>
+    <hyperlink ref="C59" r:id="rId15" xr:uid="{06153331-EFAF-4AF9-BBD3-96E5CA4C7A60}"/>
+    <hyperlink ref="C61" r:id="rId16" xr:uid="{C6C2295E-BD9B-4346-9A9D-ED8D07A243EF}"/>
+    <hyperlink ref="C64" r:id="rId17" xr:uid="{64A7A1E6-52BC-4C21-BDD5-B9696D405E82}"/>
+    <hyperlink ref="C67" r:id="rId18" xr:uid="{76EEFD13-22CB-4139-8263-2F2986F90965}"/>
+    <hyperlink ref="C74" r:id="rId19" xr:uid="{251D81FE-761E-4AA5-945E-113B12680D81}"/>
+    <hyperlink ref="C75" r:id="rId20" xr:uid="{6AD2EA75-DF93-4A05-9D05-9A18F061A376}"/>
+    <hyperlink ref="C77" r:id="rId21" xr:uid="{885E4273-4836-4C52-8CF6-46996BC68CE8}"/>
+    <hyperlink ref="C81" r:id="rId22" xr:uid="{1920D51F-FB1A-46AD-AA2C-D33BF1709B91}"/>
+    <hyperlink ref="C86" r:id="rId23" xr:uid="{1854EF3F-6E69-4D17-B7EA-F60E5748DD02}"/>
+    <hyperlink ref="C88" r:id="rId24" xr:uid="{9F0F6481-ABE5-4F4A-894A-0F0F7A8A1BB1}"/>
+    <hyperlink ref="C90" r:id="rId25" xr:uid="{7EA9F407-5A92-445B-B0D4-99EF2E534E18}"/>
+    <hyperlink ref="C91" r:id="rId26" xr:uid="{84AE1136-F592-426F-933B-AFB37D5F27E2}"/>
+    <hyperlink ref="C93" r:id="rId27" xr:uid="{77D0C496-04B7-4A96-BD42-B0A5EBABB068}"/>
+    <hyperlink ref="C97" r:id="rId28" xr:uid="{536AAD99-A084-4A7F-9747-E843EB5F4D07}"/>
+    <hyperlink ref="C114" r:id="rId29" xr:uid="{AA9729B9-E53A-47AA-AEED-C0E4537E429B}"/>
+    <hyperlink ref="C127" r:id="rId30" xr:uid="{39218BE5-6D13-42B0-88EC-7FD8428E4F55}"/>
+    <hyperlink ref="C133" r:id="rId31" xr:uid="{63897912-784D-4376-A333-16118A2AB84A}"/>
+    <hyperlink ref="C4" r:id="rId32" xr:uid="{08E7118B-941A-4EE5-81DA-9DFA11E06E99}"/>
+    <hyperlink ref="C20" r:id="rId33" xr:uid="{2E3C695B-8316-4C5A-8654-856A0971A4F1}"/>
+    <hyperlink ref="C36" r:id="rId34" xr:uid="{A699AD30-C7D2-4E20-B183-3E56852EAC56}"/>
+    <hyperlink ref="C39" r:id="rId35" xr:uid="{99601A63-A147-445F-B354-2ADB7A19285E}"/>
+    <hyperlink ref="C40" r:id="rId36" xr:uid="{42F2B40B-3896-4D86-8E1F-D1E66A687444}"/>
+    <hyperlink ref="C42" r:id="rId37" xr:uid="{2AF3065E-C515-43E8-9C34-394857DEDF99}"/>
+    <hyperlink ref="C132" r:id="rId38" xr:uid="{BCDEBE63-B57B-43A8-AF62-602F20CAFE86}"/>
+    <hyperlink ref="C128" r:id="rId39" xr:uid="{1E1B47C2-0536-488B-B3B3-FF62383B6F35}"/>
+    <hyperlink ref="C126" r:id="rId40" xr:uid="{ABE47253-802C-438C-8EBF-8B9A3C616B04}"/>
+    <hyperlink ref="C123" r:id="rId41" xr:uid="{783E043C-B8E7-4321-9DF8-F25369B4E2BE}"/>
+    <hyperlink ref="C121" r:id="rId42" xr:uid="{9DC00A52-D7A7-426E-9B24-F2D24D5CAAEA}"/>
+    <hyperlink ref="C118" r:id="rId43" xr:uid="{B85A2729-83A3-4620-9BBB-38B65B533BF3}"/>
+    <hyperlink ref="C117" r:id="rId44" xr:uid="{565BF175-4242-44DA-A997-E2A48218ECF0}"/>
+    <hyperlink ref="C108" r:id="rId45" xr:uid="{1AC2C38E-F15D-4D95-887A-284DF240403C}"/>
+    <hyperlink ref="C84" r:id="rId46" xr:uid="{9946A93C-8872-4300-BD66-3FDD9EC5CC69}"/>
+    <hyperlink ref="C78" r:id="rId47" xr:uid="{060F7AA6-4151-4640-9125-EB05725D5C4E}"/>
+    <hyperlink ref="C71" r:id="rId48" xr:uid="{2A014FF4-6899-437D-9B86-4081802651C4}"/>
+    <hyperlink ref="C62" r:id="rId49" xr:uid="{222265FC-E132-423E-B05E-78435D160A16}"/>
+    <hyperlink ref="C56" r:id="rId50" xr:uid="{EB9E6D4D-614F-426A-B561-DD86A9C73718}"/>
+    <hyperlink ref="C55" r:id="rId51" xr:uid="{49603C16-1494-480F-AF14-8DD65509D0A0}"/>
+    <hyperlink ref="C54" r:id="rId52" xr:uid="{EE2BA59D-84E1-4A3C-86BD-E9E0C33D7DFB}"/>
+    <hyperlink ref="C45" r:id="rId53" xr:uid="{642DD3F3-46F4-448D-BD86-703F11F37A10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/union_data.xlsx
+++ b/union_data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexBusch\Documents\GitHub\industrial_action\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD7BE9E-44DB-4C88-A9C5-9B91E485D7F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BDFDB0-1C28-4208-B79B-4275FD663965}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10500" xr2:uid="{55DB6E5A-4C35-45C3-9C4F-265E93AFAEF7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="hist" sheetId="1" r:id="rId1"/>
+    <sheet name="rss" sheetId="3" r:id="rId2"/>
+    <sheet name="readme" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="501">
   <si>
     <t>U-Union</t>
   </si>
@@ -69,39 +71,24 @@
     <t>url2</t>
   </si>
   <si>
-    <t>url3</t>
-  </si>
-  <si>
     <t>Allgaeu</t>
   </si>
   <si>
-    <t>url4</t>
-  </si>
-  <si>
     <t>Amberg</t>
   </si>
   <si>
-    <t>url5</t>
-  </si>
-  <si>
     <t>https://www.igmetall-arnsberg.de/aktuelles/alle-nachrichten/</t>
   </si>
   <si>
     <t>Arnsberg</t>
   </si>
   <si>
-    <t>url12</t>
-  </si>
-  <si>
     <t>url1</t>
   </si>
   <si>
     <t>Aschaffenburg</t>
   </si>
   <si>
-    <t>url6</t>
-  </si>
-  <si>
     <t>https://augsburg.igmetall.de/</t>
   </si>
   <si>
@@ -186,18 +173,12 @@
     <t>Dresden-Riesa</t>
   </si>
   <si>
-    <t>http://www.igmetall-duisburg.de/</t>
-  </si>
-  <si>
     <t>Duisburg-Dinslaken</t>
   </si>
   <si>
     <t>Dueren-Stolberg</t>
   </si>
   <si>
-    <t>https://duesseldorf-neuss.igmetall.de/</t>
-  </si>
-  <si>
     <t>Duesseldorf-Neuss</t>
   </si>
   <si>
@@ -213,9 +194,6 @@
     <t>Emden</t>
   </si>
   <si>
-    <t>https://igmetall-ennepe-ruhr-wupper.de/</t>
-  </si>
-  <si>
     <t>Eneppe-Ruhr</t>
   </si>
   <si>
@@ -240,9 +218,6 @@
     <t>Freudenstadt</t>
   </si>
   <si>
-    <t>https://www.friedrichshafen.igm.de/</t>
-  </si>
-  <si>
     <t>Friedrichshafen-Oberschwaben</t>
   </si>
   <si>
@@ -267,30 +242,18 @@
     <t>Gummersbach</t>
   </si>
   <si>
-    <t>say they will switch to new website layout soon</t>
-  </si>
-  <si>
     <t>http://guetersloh-oelde.igmetall.de/aktuelles/alle-nachrichten</t>
   </si>
   <si>
     <t>Guetersloh-Oelde</t>
   </si>
   <si>
-    <t>url7</t>
-  </si>
-  <si>
     <t>Halberstadt</t>
   </si>
   <si>
-    <t>https://www.hagen.igmetall.de/</t>
-  </si>
-  <si>
     <t>Hagen</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>website not available</t>
   </si>
   <si>
@@ -306,18 +269,12 @@
     <t>Hamm-Lippstadt</t>
   </si>
   <si>
-    <t>url8</t>
-  </si>
-  <si>
     <t>https://www.igmetall-hannover.de/no_cache/aktuelles/meldungsarchiv/</t>
   </si>
   <si>
     <t>Hannover</t>
   </si>
   <si>
-    <t>url13</t>
-  </si>
-  <si>
     <t>Heidelberg</t>
   </si>
   <si>
@@ -327,9 +284,6 @@
     <t>Heilbronn-Neckarsulm</t>
   </si>
   <si>
-    <t>Herborng</t>
-  </si>
-  <si>
     <t>https://netkey40.igmetall.de/homepages/herford/berunskontakt/ansprechpartner.html</t>
   </si>
   <si>
@@ -345,9 +299,6 @@
     <t>Ingolstadt</t>
   </si>
   <si>
-    <t>https://www.igmetall-dresden-riesa.de/aktuelles/meldungsarchiv/</t>
-  </si>
-  <si>
     <t>https://www.igmetall-cottbus-suedbrandenburg.de/aktuelles/meldungsarchiv/</t>
   </si>
   <si>
@@ -378,18 +329,12 @@
     <t>Koeln-Leverkusen</t>
   </si>
   <si>
-    <t>url9</t>
-  </si>
-  <si>
     <t>http://www.igmetall-krefeld.de/</t>
   </si>
   <si>
     <t>Krefeld</t>
   </si>
   <si>
-    <t>url20</t>
-  </si>
-  <si>
     <t>Landau</t>
   </si>
   <si>
@@ -411,9 +356,6 @@
     <t>Leipzig</t>
   </si>
   <si>
-    <t>url14</t>
-  </si>
-  <si>
     <t>Loerrach</t>
   </si>
   <si>
@@ -426,9 +368,6 @@
     <t>Ludwigsburg-Waiblingen</t>
   </si>
   <si>
-    <t>url21</t>
-  </si>
-  <si>
     <t>https://www.igmetall-ludwigsfelde.de/aktuelles/meldungsarchiv/</t>
   </si>
   <si>
@@ -456,9 +395,6 @@
     <t>Maerkischer-Kreis</t>
   </si>
   <si>
-    <t>url22</t>
-  </si>
-  <si>
     <t>Minden</t>
   </si>
   <si>
@@ -498,9 +434,6 @@
     <t>Neuwied</t>
   </si>
   <si>
-    <t>https://www.igmetall-nienburg-stadthagen.de/aktuelles/meldungsarchiv</t>
-  </si>
-  <si>
     <t>Nienburg-Stadthagen</t>
   </si>
   <si>
@@ -570,9 +503,6 @@
     <t>Pforzheim</t>
   </si>
   <si>
-    <t>url23</t>
-  </si>
-  <si>
     <t>Regensburg</t>
   </si>
   <si>
@@ -588,9 +518,6 @@
     <t>Remscheid-Solingen</t>
   </si>
   <si>
-    <t>url24</t>
-  </si>
-  <si>
     <t>Rendsburg</t>
   </si>
   <si>
@@ -624,9 +551,6 @@
     <t>Ruhrgebiet-Mitte</t>
   </si>
   <si>
-    <t>url25</t>
-  </si>
-  <si>
     <t>no news</t>
   </si>
   <si>
@@ -639,9 +563,6 @@
     <t>Salzgitter-Peine</t>
   </si>
   <si>
-    <t>url15</t>
-  </si>
-  <si>
     <t>https://schwabach.igmetall.de/</t>
   </si>
   <si>
@@ -711,9 +632,6 @@
     <t>Velbert</t>
   </si>
   <si>
-    <t>url26</t>
-  </si>
-  <si>
     <t>Villingen-Schwenningen</t>
   </si>
   <si>
@@ -747,9 +665,6 @@
     <t>Wuerzburg</t>
   </si>
   <si>
-    <t>url27</t>
-  </si>
-  <si>
     <t>https://igm-zwickau.de/aktuelles/meldungsarchiv/</t>
   </si>
   <si>
@@ -837,9 +752,6 @@
     <t>https://www.igmetall-voelklingen.de/news/meldungsarchiv/</t>
   </si>
   <si>
-    <t xml:space="preserve">no news? </t>
-  </si>
-  <si>
     <t>https://aschaffenburg.igmetall.de/aktuell</t>
   </si>
   <si>
@@ -921,9 +833,6 @@
     <t>urlby1</t>
   </si>
   <si>
-    <t>urlby2</t>
-  </si>
-  <si>
     <t>https://flensburg.igmetall.de/aktuell</t>
   </si>
   <si>
@@ -976,6 +885,651 @@
   </si>
   <si>
     <t>https://westmittelfranken.igmetall.de/aktuell</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-dresden-riesa.de/aktuelles/alle-meldungen-/-meldungsarchiv/</t>
+  </si>
+  <si>
+    <t>RSS</t>
+  </si>
+  <si>
+    <t>RSS-URL</t>
+  </si>
+  <si>
+    <t>https://aschaffenburg.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://www.aalen.igm.de/feed/news.xml</t>
+  </si>
+  <si>
+    <t>https://www.albstadt.igm.de/feed/news.xml</t>
+  </si>
+  <si>
+    <t>http://www.igmetall-alfeld-hameln-hildesheim.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://allgaeu.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://amberg.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-bad-kreuznach.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://bamberg.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-berlin.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-betzdorf.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://www.igm-bs.de/news.xml</t>
+  </si>
+  <si>
+    <t>https://bremen.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://www.bruchsal.igm.de/feed/news.xml</t>
+  </si>
+  <si>
+    <t>http://www.igmetall-celle-lueneburg.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-chemnitz.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-cottbus-suedbrandenburg.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://coburg.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-darmstadt.de/rss.xml</t>
+  </si>
+  <si>
+    <t>pseudo RSS</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-dresden-riesa.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-dueren-stolberg.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://emden.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-erfurt.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://erlangen.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://flensburg.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-frankfurt.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://www.freiburg.igm.de/feed/news.xml</t>
+  </si>
+  <si>
+    <t>https://www.freudenstadt.igm.de/feed/news.xml</t>
+  </si>
+  <si>
+    <t>https://www.friedrichshafen.igm.de/feed/news.xml</t>
+  </si>
+  <si>
+    <t>https://www.gaggenau.igm.de/feed/news.xml</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-jena-saalfeld-gera.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://www.goeppingen-geislingen.igm.de/feed/news.xml</t>
+  </si>
+  <si>
+    <t>https://netkey40.igmetall.de/homepages/hagen/ansprechpartner.html</t>
+  </si>
+  <si>
+    <t>no RSS</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-hanau-fulda.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-hannover.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://www.heidelberg.igm.de/feed/news.xml</t>
+  </si>
+  <si>
+    <t>https://www.heidenheim.igm.de/feed/news.xml</t>
+  </si>
+  <si>
+    <t>https://www.neckarsulm.igm.de/feed/news.xml</t>
+  </si>
+  <si>
+    <t>Herborn</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-herborn.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-homburg-saarpfalz.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://ingolstadt.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-kaiserslautern.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://www.karlsruhe.igm.de/feed/news.xml</t>
+  </si>
+  <si>
+    <t>https://kiel-neumuenster.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>http://www.igmetall-koblenz.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-landau.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://landshut.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://leer-papenburg.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-leipzig.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://www.loerrach.igm.de/feed/news.xml</t>
+  </si>
+  <si>
+    <t>https://luebeck-wismar.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-ludwigsfelde.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-ludwigshafen-frankenthal.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-mainz-wiesbaden.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://www.mannheim.igm.de/feed/news.xml</t>
+  </si>
+  <si>
+    <t>only facebook http://www.facebook.com/IGM.MK</t>
+  </si>
+  <si>
+    <t>https://www.igm-mittelhessen.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://www.offenburg.igm.de/feed/news.xml</t>
+  </si>
+  <si>
+    <t>https://oldenburg-wilhelmshaven.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-neunkirchen.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://neu-ulm-guenzburg.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-neuwied.de/rss.xml</t>
+  </si>
+  <si>
+    <t>http://igmetall-nienburg-stadthagen.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-nordhausen.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-nordhessen.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://nuernberg.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-offenbach.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://olpe.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-oranienburg-potsdam.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-osnabrueck.de/rss.xml</t>
+  </si>
+  <si>
+    <t>http://www.igmetall-ostbrandenburg.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://ostoberfranken.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>http://www.igmetall-ostsachsen.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://passau.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://www.pforzheim.igm.de/feed/news.xml</t>
+  </si>
+  <si>
+    <t>https://regensburg.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://hamburg.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://rendsburg.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://www.reutlingen.igm.de/feed/news.xml</t>
+  </si>
+  <si>
+    <t>https://rosenheim.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://rostock-schwerin.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-saarbruecken.de/rss.xml</t>
+  </si>
+  <si>
+    <t>http://www.igmetall-salzgitter-peine.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://schwabach.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://www.schwaebisch-gmuend.igm.de/feed/news.xml</t>
+  </si>
+  <si>
+    <t>https://www.schwaebisch-gmuend.igm.de/feed/jugend.xml</t>
+  </si>
+  <si>
+    <t>https://www.schwaebisch-hall.igm.de/feed/news.xml</t>
+  </si>
+  <si>
+    <t>https://schweinfurt.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-siegen.de/aktuell/f/index.rss2</t>
+  </si>
+  <si>
+    <t>https://www.singen.igm.de/feed/news.xml</t>
+  </si>
+  <si>
+    <t>https://stralsund-neubrandenburg.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://www.stuttgart.igm.de/feed/news.xml</t>
+  </si>
+  <si>
+    <t>http://www.igmetall-sued-niedersachsen-harz.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://www.tauberbischofsheim.igm.de/feed/news.xml</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-trier.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://www.ulm.igm.de/feed/news.xml</t>
+  </si>
+  <si>
+    <t>https://unterelbe.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://www.villingen-schwenningen.igm.de/feed/news.xml</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-voelklingen.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://weilheim.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://weser-elbe.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://wesermarsch.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://westmittelfranken.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-wob.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://igm-zwickau.de/rss.xml</t>
+  </si>
+  <si>
+    <t>B-Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>https://www.bw.igm.de/feed/news.xml</t>
+  </si>
+  <si>
+    <t>https://www.bw.igm.de/feed/presse.xml</t>
+  </si>
+  <si>
+    <t>B-Baden-Württemberg Presse</t>
+  </si>
+  <si>
+    <t>B-Bayern</t>
+  </si>
+  <si>
+    <t>https://bayern.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>B-Bayern Presse</t>
+  </si>
+  <si>
+    <t>https://bayern.igmetall.de/presse.rss</t>
+  </si>
+  <si>
+    <t>B-Berlin-Brandenburg-Sachsen</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-bbs.de/rss.xml</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-bbs.de/presse.xml</t>
+  </si>
+  <si>
+    <t>B-Küste</t>
+  </si>
+  <si>
+    <t>https://kueste.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://kueste.igmetall.de/presse.rss</t>
+  </si>
+  <si>
+    <t>B-Mitte</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-bezirk-mitte.de/rss.xml</t>
+  </si>
+  <si>
+    <t>B-Niedersachsen-Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-nieder-sachsen-anhalt.de/rss.xml</t>
+  </si>
+  <si>
+    <t>B-Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-nrw.de/presse/pressemitteilungen/</t>
+  </si>
+  <si>
+    <t>IGM-Aktuelles</t>
+  </si>
+  <si>
+    <t>IGM-Presse</t>
+  </si>
+  <si>
+    <t>IGM-Jugend</t>
+  </si>
+  <si>
+    <t>https://www.igmetall.de/igmetall.rss</t>
+  </si>
+  <si>
+    <t>https://www.igmetall.de/presse.rss</t>
+  </si>
+  <si>
+    <t>https://www.igmetall.de/jugend.rss</t>
+  </si>
+  <si>
+    <t>Schwaebisch-Gmuend-Jugend</t>
+  </si>
+  <si>
+    <t>urlvint2</t>
+  </si>
+  <si>
+    <t>urlvint but article on site itself, no link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urlvint with article link </t>
+  </si>
+  <si>
+    <t>no news since 2018</t>
+  </si>
+  <si>
+    <t>https://kueste.igmetall.de/</t>
+  </si>
+  <si>
+    <t>RSS from Offenburg? https://www.esslingen.igm.de/feed/news.xml</t>
+  </si>
+  <si>
+    <t>https://www.bw.igm.de/news/</t>
+  </si>
+  <si>
+    <t>https://bayern.igmetall.de/aktuell/</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-bbs.de/aktuelles/news-archiv/</t>
+  </si>
+  <si>
+    <t>https://www.igmetall.de/aktuelles/</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-bezirk-mitte.de/aktuelles/meldungsarchiv/</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-nieder-sachsen-anhalt.de/home-aktuelles/alle-meldungen/</t>
+  </si>
+  <si>
+    <t>https://www.friedrichshafen.igm.de/news/</t>
+  </si>
+  <si>
+    <t>http://www.igmetall-duisburg.de/?page_n14=1</t>
+  </si>
+  <si>
+    <t>https://duesseldorf-neuss.igmetall.de/aktuelles/?pn=1&amp;plid=753784&amp;bs=9#result_1</t>
+  </si>
+  <si>
+    <t>https://igmetall-ennepe-ruhr-wupper.de/category/aktuelles/</t>
+  </si>
+  <si>
+    <t>no_news</t>
+  </si>
+  <si>
+    <t>urlind</t>
+  </si>
+  <si>
+    <t>only cross post news</t>
+  </si>
+  <si>
+    <t>urlvint1</t>
+  </si>
+  <si>
+    <t>maybe facebook</t>
+  </si>
+  <si>
+    <t>http://paderborn.igmetall.de/aktuelles/alle-nachrichten/</t>
+  </si>
+  <si>
+    <t>https://www.minden-igmetall.de/aktuelles/alle-nachrichten/</t>
+  </si>
+  <si>
+    <t>http://guetersloh-oelde.igmetall.de/aktuelles/alle-nachrichten/</t>
+  </si>
+  <si>
+    <t>Leer-Papenburg</t>
+  </si>
+  <si>
+    <t>https://www.igmetall-nienburg-stadthagen.de/aktuelles/meldungsarchiv/</t>
+  </si>
+  <si>
+    <t>verdi</t>
+  </si>
+  <si>
+    <t>url_verdi</t>
+  </si>
+  <si>
+    <t>https://ostwestfalen-lippe.verdi.de/presse/pressemitteilungen/@@rss</t>
+  </si>
+  <si>
+    <t>Ostwestfalen-Lippe</t>
+  </si>
+  <si>
+    <t>https://www.verdi.de/presse/pressemitteilungen/rss</t>
+  </si>
+  <si>
+    <t>https://bb.verdi.de/presse/pressemitteilungen</t>
+  </si>
+  <si>
+    <t>B-Berlin-Brandenburg</t>
+  </si>
+  <si>
+    <t>https://berlin.verdi.de/themen/nachrichten</t>
+  </si>
+  <si>
+    <t>https://cottbus.verdi.de/themen/nachrichten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cottbus </t>
+  </si>
+  <si>
+    <t>https://potsdam.verdi.de/themen/nachrichten</t>
+  </si>
+  <si>
+    <t>Potsdam-Nordwestbrandenburg</t>
+  </si>
+  <si>
+    <t>https://nordostbrandenburg.verdi.de/themen/nachrichten</t>
+  </si>
+  <si>
+    <t>Nordostbrandenburg</t>
+  </si>
+  <si>
+    <t>https://bawue.verdi.de/presse/pressemitteilungen</t>
+  </si>
+  <si>
+    <t>https://bawue.verdi.de/presse/pressemitteilungen/@@rss</t>
+  </si>
+  <si>
+    <t>https://heilbronn.verdi.de/themen/nachrichten</t>
+  </si>
+  <si>
+    <t>Heilbronn-Neckar-Franken</t>
+  </si>
+  <si>
+    <t>https://rhein-neckar.verdi.de/themen/aktuelles-konflikte</t>
+  </si>
+  <si>
+    <t>Rhein-Neckar</t>
+  </si>
+  <si>
+    <t>url_verdi2</t>
+  </si>
+  <si>
+    <t>https://stuttgart.verdi.de/presse/pressemitteilungen/@@rss</t>
+  </si>
+  <si>
+    <t>no recent news since 2021</t>
+  </si>
+  <si>
+    <t>https://stuttgart.verdi.de/presse/pressemitteilungen</t>
+  </si>
+  <si>
+    <t>https://mittelbaden.verdi.de/meine-themen/nachrichten</t>
+  </si>
+  <si>
+    <t>Mittelbaden-Nordschwaben</t>
+  </si>
+  <si>
+    <t>https://ulm-oberschwaben.verdi.de/presse/pressemitteilungen</t>
+  </si>
+  <si>
+    <t>Ulm-Oberschwaben</t>
+  </si>
+  <si>
+    <t>https://ulm-oberschwaben.verdi.de/presse/pressemitteilungen/@@rss</t>
+  </si>
+  <si>
+    <t>https://suedbadenschwarzwald.verdi.de/themen/nachrichten</t>
+  </si>
+  <si>
+    <t>Suedbaden-Schwarzwald</t>
+  </si>
+  <si>
+    <t>https://fils-neckar-alb.verdi.de/themen/nachrichten</t>
+  </si>
+  <si>
+    <t>Fils-Neckar-Alb</t>
+  </si>
+  <si>
+    <t>https://nord.verdi.de/presse/pressemitteilungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B-Nord </t>
+  </si>
+  <si>
+    <t>https://nord.verdi.de/presse/pressemitteilungen/rss</t>
+  </si>
+  <si>
+    <t>Luebeck-Ostholstein</t>
+  </si>
+  <si>
+    <t>https://luebeck-ostholstein.verdi.de/ueber-uns/nachrichten</t>
+  </si>
+  <si>
+    <t>https://schwerin.verdi.de/</t>
+  </si>
+  <si>
+    <t>Schwerin</t>
+  </si>
+  <si>
+    <t>https://rostock.verdi.de/themen/nachrichten-und-aktuelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rostock </t>
+  </si>
+  <si>
+    <t>no news since 2021</t>
+  </si>
+  <si>
+    <t>https://nb-hgw.verdi.de/presse/pressemitteilungen</t>
+  </si>
+  <si>
+    <t>Neubrandenburg-Greifswald</t>
+  </si>
+  <si>
+    <t>no news since early 2022</t>
+  </si>
+  <si>
+    <t>https://shsw.verdi.de/themen/nachrichten</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein Süd-West</t>
+  </si>
+  <si>
+    <t>https://shnw.verdi.de/themen/nachrichten</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein Nord-West</t>
+  </si>
+  <si>
+    <t>https://kiel-ploen.verdi.de/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiel </t>
   </si>
 </sst>
 </file>
@@ -1339,10 +1893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF38B2E-D1B8-4839-8784-A9099D704EE1}">
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1350,7 +1904,7 @@
     <col min="3" max="3" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1364,10 +1918,16 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="G1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1381,10 +1941,13 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="G2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1392,7 +1955,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1400,8 +1963,14 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1409,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1417,8 +1986,14 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1432,10 +2007,16 @@
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1443,16 +2024,22 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1460,16 +2047,22 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1477,16 +2070,19 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1494,16 +2090,22 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1511,19 +2113,22 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>298</v>
+        <v>439</v>
       </c>
       <c r="F10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="G10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1531,16 +2136,22 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1548,16 +2159,22 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1565,16 +2182,22 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1582,16 +2205,22 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1599,16 +2228,19 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="G15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1616,16 +2248,19 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+      <c r="G16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1633,16 +2268,19 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="G17" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1650,16 +2288,22 @@
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1667,16 +2311,22 @@
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1684,16 +2334,22 @@
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1701,16 +2357,22 @@
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1718,16 +2380,22 @@
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1735,16 +2403,22 @@
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1752,16 +2426,22 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1769,16 +2449,22 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1786,33 +2472,42 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
-      <c r="C27" t="s">
-        <v>106</v>
+      <c r="C27" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1820,16 +2515,19 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>436</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+      <c r="G28" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1837,16 +2535,22 @@
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1854,16 +2558,19 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>437</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+      <c r="G30" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1871,16 +2578,19 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+      <c r="G31" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1888,16 +2598,22 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E32" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1905,16 +2621,19 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>438</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+      <c r="G33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1922,16 +2641,22 @@
         <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1939,16 +2664,22 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1956,16 +2687,19 @@
         <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1973,16 +2707,22 @@
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1990,16 +2730,22 @@
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2007,16 +2753,22 @@
         <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2024,16 +2776,22 @@
         <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2041,13 +2799,22 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>435</v>
       </c>
       <c r="D41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2055,16 +2822,22 @@
         <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D42" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2072,16 +2845,19 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D43" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2089,16 +2865,22 @@
         <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="D44" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E44" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2106,53 +2888,65 @@
         <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
       </c>
-      <c r="C46" t="s">
-        <v>78</v>
+      <c r="C46" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>442</v>
       </c>
       <c r="F46" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="G46" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
       </c>
-      <c r="C47" t="s">
-        <v>81</v>
+      <c r="C47" s="1" t="s">
+        <v>446</v>
       </c>
       <c r="D47" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2160,16 +2954,19 @@
         <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2177,19 +2974,22 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>321</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E49" t="s">
-        <v>87</v>
+        <v>439</v>
       </c>
       <c r="F49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="G49" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2197,16 +2997,19 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="G50" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2214,16 +3017,22 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D51" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E51" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="F51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G51" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2231,16 +3040,22 @@
         <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2248,16 +3063,22 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D53" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E53" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2265,16 +3086,22 @@
         <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="D54" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2282,16 +3109,22 @@
         <v>3</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2299,16 +3132,22 @@
         <v>3</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="D56" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2316,16 +3155,22 @@
         <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="D57" t="s">
-        <v>100</v>
+        <v>328</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2333,16 +3178,19 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D58" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="G58" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2350,16 +3198,22 @@
         <v>3</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="D59" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2367,16 +3221,22 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E60" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="G60" t="s">
+        <v>322</v>
+      </c>
+      <c r="H60" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2384,16 +3244,22 @@
         <v>3</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2401,16 +3267,22 @@
         <v>3</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2418,16 +3290,22 @@
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2435,16 +3313,22 @@
         <v>3</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E64" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2452,16 +3336,22 @@
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D65" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="E65" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="F65" t="s">
+        <v>174</v>
+      </c>
+      <c r="G65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2469,16 +3359,19 @@
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D66" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E66" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+      <c r="G66" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2486,16 +3379,22 @@
         <v>3</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="D67" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="E67" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2503,16 +3402,25 @@
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D68" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E68" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="F68" t="s">
+        <v>174</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2520,16 +3428,22 @@
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D69" t="s">
-        <v>125</v>
+        <v>447</v>
       </c>
       <c r="E69" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2537,16 +3451,22 @@
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D70" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E70" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2554,16 +3474,22 @@
         <v>3</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="D71" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="E71" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2571,16 +3497,22 @@
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="D72" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E72" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2588,16 +3520,19 @@
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="D73" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E73" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+      <c r="G73" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2605,16 +3540,22 @@
         <v>3</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="D74" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E74" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2622,16 +3563,22 @@
         <v>3</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="D75" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E75" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2639,16 +3586,19 @@
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="D76" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E76" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="G76" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2656,16 +3606,22 @@
         <v>3</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="D77" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E77" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2673,16 +3629,22 @@
         <v>3</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="D78" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E78" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2690,33 +3652,42 @@
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="D79" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="E79" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="F79" t="s">
+        <v>346</v>
+      </c>
+      <c r="G79" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
       </c>
-      <c r="C80" t="s">
-        <v>145</v>
+      <c r="C80" s="1" t="s">
+        <v>445</v>
       </c>
       <c r="D80" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="E80" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2724,16 +3695,22 @@
         <v>3</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="D81" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E81" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2741,16 +3718,19 @@
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D82" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="E82" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="G82" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2758,16 +3738,19 @@
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="D83" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="E83" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+      <c r="G83" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2775,16 +3758,22 @@
         <v>3</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="D84" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="E84" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2792,16 +3781,22 @@
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="D85" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="E85" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2809,16 +3804,22 @@
         <v>3</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="D86" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="E86" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2826,16 +3827,25 @@
         <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="D87" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="E87" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="F87" t="s">
+        <v>174</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2843,33 +3853,45 @@
         <v>3</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="D88" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="E88" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
       </c>
-      <c r="C89" t="s">
-        <v>157</v>
+      <c r="C89" s="1" t="s">
+        <v>448</v>
       </c>
       <c r="D89" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="E89" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2877,16 +3899,22 @@
         <v>3</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="D90" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E90" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2894,16 +3922,22 @@
         <v>3</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="D91" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E91" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2911,16 +3945,22 @@
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D92" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="E92" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2928,16 +3968,22 @@
         <v>3</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="D93" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="E93" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2945,16 +3991,22 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="D94" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2962,33 +4014,42 @@
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="D95" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="G95" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
       </c>
-      <c r="C96" t="s">
-        <v>167</v>
+      <c r="C96" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D96" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="E96" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2996,16 +4057,22 @@
         <v>3</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="D97" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="E97" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3013,16 +4080,22 @@
         <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D98" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="E98" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3030,16 +4103,22 @@
         <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="D99" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="E99" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3047,33 +4126,42 @@
         <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="D100" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="E100" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
       </c>
-      <c r="C101" t="s">
-        <v>175</v>
+      <c r="C101" s="1" t="s">
+        <v>444</v>
       </c>
       <c r="D101" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="E101" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3081,19 +4169,25 @@
         <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="D102" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="E102" t="s">
-        <v>298</v>
+        <v>439</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="G102" t="s">
+        <v>174</v>
+      </c>
+      <c r="H102" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3101,16 +4195,22 @@
         <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D103" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E103" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3118,16 +4218,22 @@
         <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="D104" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="E104" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3135,16 +4241,22 @@
         <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="D105" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="E105" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3152,16 +4264,19 @@
         <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="D106" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="E106" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+      <c r="G106" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3169,16 +4284,22 @@
         <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="D107" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="E107" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3186,16 +4307,22 @@
         <v>3</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="D108" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="E108" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3203,16 +4330,22 @@
         <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="D109" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="F109" t="s">
+        <v>174</v>
+      </c>
+      <c r="G109" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3220,16 +4353,19 @@
         <v>3</v>
       </c>
       <c r="C110" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D110" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="E110" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="G110" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3237,16 +4373,22 @@
         <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="D111" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="E111" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3254,16 +4396,22 @@
         <v>3</v>
       </c>
       <c r="C112" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="D112" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="E112" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3271,19 +4419,22 @@
         <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="D113" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="E113" t="s">
-        <v>199</v>
+        <v>439</v>
       </c>
       <c r="F113" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="G113" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3291,16 +4442,22 @@
         <v>3</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="D114" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="E114" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3308,16 +4465,22 @@
         <v>3</v>
       </c>
       <c r="C115" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="D115" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="E115" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3325,19 +4488,25 @@
         <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="D116" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="E116" t="s">
-        <v>298</v>
+        <v>439</v>
       </c>
       <c r="F116" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="G116" t="s">
+        <v>322</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3345,16 +4514,22 @@
         <v>3</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="D117" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="E117" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3362,33 +4537,45 @@
         <v>3</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="D118" t="s">
-        <v>208</v>
+        <v>422</v>
       </c>
       <c r="E118" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
       </c>
-      <c r="C119" t="s">
-        <v>311</v>
+      <c r="C119" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="D119" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="E119" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3396,16 +4583,22 @@
         <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="D120" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="E120" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3413,101 +4606,134 @@
         <v>3</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>285</v>
+        <v>183</v>
       </c>
       <c r="D121" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="E121" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
       </c>
-      <c r="C122" t="s">
-        <v>213</v>
+      <c r="C122" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="D122" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="E122" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>284</v>
+      <c r="C123" t="s">
+        <v>186</v>
       </c>
       <c r="D123" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="E123" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="G123" t="s">
+        <v>322</v>
+      </c>
+      <c r="H123" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
       </c>
-      <c r="C124" t="s">
-        <v>216</v>
+      <c r="C124" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="D124" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="E124" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>3</v>
       </c>
-      <c r="C125" t="s">
-        <v>218</v>
+      <c r="C125" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="D125" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="E125" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>3</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>283</v>
+      <c r="C126" t="s">
+        <v>191</v>
       </c>
       <c r="D126" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="E126" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+      <c r="G126" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3515,16 +4741,22 @@
         <v>3</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D127" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="E127" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3532,33 +4764,45 @@
         <v>3</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="D128" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="E128" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>3</v>
       </c>
-      <c r="C129" t="s">
-        <v>223</v>
+      <c r="C129" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="D129" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3566,19 +4810,19 @@
         <v>3</v>
       </c>
       <c r="C130" t="s">
-        <v>312</v>
+        <v>196</v>
       </c>
       <c r="D130" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="E130" t="s">
-        <v>29</v>
-      </c>
-      <c r="F130" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="G130" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3586,33 +4830,48 @@
         <v>3</v>
       </c>
       <c r="C131" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="D131" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="E131" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="F131" t="s">
+        <v>282</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>3</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>281</v>
+      <c r="C132" t="s">
+        <v>199</v>
       </c>
       <c r="D132" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="E132" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="F132" t="s">
+        <v>441</v>
+      </c>
+      <c r="G132" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3620,33 +4879,45 @@
         <v>3</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="D133" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="E133" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>3</v>
       </c>
-      <c r="C134" t="s">
-        <v>314</v>
+      <c r="C134" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="D134" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="E134" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3654,16 +4925,22 @@
         <v>3</v>
       </c>
       <c r="C135" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="D135" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="E135" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3671,16 +4948,22 @@
         <v>3</v>
       </c>
       <c r="C136" t="s">
-        <v>315</v>
+        <v>204</v>
       </c>
       <c r="D136" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="E136" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3688,16 +4971,22 @@
         <v>3</v>
       </c>
       <c r="C137" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="D137" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="E137" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3705,16 +4994,22 @@
         <v>3</v>
       </c>
       <c r="C138" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="D138" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="E138" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G138" t="s">
+        <v>322</v>
+      </c>
+      <c r="H138" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3722,16 +5017,22 @@
         <v>3</v>
       </c>
       <c r="C139" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="D139" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="E139" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3739,14 +5040,227 @@
         <v>3</v>
       </c>
       <c r="C140" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="D140" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="E140" t="s">
-        <v>204</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="F140" t="s">
+        <v>174</v>
+      </c>
+      <c r="G140" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
+        <v>212</v>
+      </c>
+      <c r="D141" t="s">
+        <v>213</v>
+      </c>
+      <c r="E141" t="s">
+        <v>18</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D142" t="s">
+        <v>396</v>
+      </c>
+      <c r="E142" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D143" t="s">
+        <v>400</v>
+      </c>
+      <c r="E143" t="s">
+        <v>24</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D144" t="s">
+        <v>404</v>
+      </c>
+      <c r="E144" t="s">
+        <v>18</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D145" t="s">
+        <v>407</v>
+      </c>
+      <c r="E145" t="s">
+        <v>24</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D146" t="s">
+        <v>410</v>
+      </c>
+      <c r="E146" t="s">
+        <v>18</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D147" t="s">
+        <v>412</v>
+      </c>
+      <c r="E147" t="s">
+        <v>18</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>415</v>
+      </c>
+      <c r="D148" t="s">
+        <v>414</v>
+      </c>
+      <c r="E148" t="s">
+        <v>440</v>
+      </c>
+      <c r="G148" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D149" t="s">
+        <v>416</v>
+      </c>
+      <c r="E149" t="s">
+        <v>18</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C151" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3779,21 +5293,21 @@
     <hyperlink ref="C93" r:id="rId27" xr:uid="{77D0C496-04B7-4A96-BD42-B0A5EBABB068}"/>
     <hyperlink ref="C97" r:id="rId28" xr:uid="{536AAD99-A084-4A7F-9747-E843EB5F4D07}"/>
     <hyperlink ref="C114" r:id="rId29" xr:uid="{AA9729B9-E53A-47AA-AEED-C0E4537E429B}"/>
-    <hyperlink ref="C127" r:id="rId30" xr:uid="{39218BE5-6D13-42B0-88EC-7FD8428E4F55}"/>
-    <hyperlink ref="C133" r:id="rId31" xr:uid="{63897912-784D-4376-A333-16118A2AB84A}"/>
+    <hyperlink ref="C128" r:id="rId30" xr:uid="{39218BE5-6D13-42B0-88EC-7FD8428E4F55}"/>
+    <hyperlink ref="C134" r:id="rId31" xr:uid="{63897912-784D-4376-A333-16118A2AB84A}"/>
     <hyperlink ref="C4" r:id="rId32" xr:uid="{08E7118B-941A-4EE5-81DA-9DFA11E06E99}"/>
     <hyperlink ref="C20" r:id="rId33" xr:uid="{2E3C695B-8316-4C5A-8654-856A0971A4F1}"/>
     <hyperlink ref="C36" r:id="rId34" xr:uid="{A699AD30-C7D2-4E20-B183-3E56852EAC56}"/>
     <hyperlink ref="C39" r:id="rId35" xr:uid="{99601A63-A147-445F-B354-2ADB7A19285E}"/>
     <hyperlink ref="C40" r:id="rId36" xr:uid="{42F2B40B-3896-4D86-8E1F-D1E66A687444}"/>
     <hyperlink ref="C42" r:id="rId37" xr:uid="{2AF3065E-C515-43E8-9C34-394857DEDF99}"/>
-    <hyperlink ref="C132" r:id="rId38" xr:uid="{BCDEBE63-B57B-43A8-AF62-602F20CAFE86}"/>
-    <hyperlink ref="C128" r:id="rId39" xr:uid="{1E1B47C2-0536-488B-B3B3-FF62383B6F35}"/>
-    <hyperlink ref="C126" r:id="rId40" xr:uid="{ABE47253-802C-438C-8EBF-8B9A3C616B04}"/>
-    <hyperlink ref="C123" r:id="rId41" xr:uid="{783E043C-B8E7-4321-9DF8-F25369B4E2BE}"/>
-    <hyperlink ref="C121" r:id="rId42" xr:uid="{9DC00A52-D7A7-426E-9B24-F2D24D5CAAEA}"/>
-    <hyperlink ref="C118" r:id="rId43" xr:uid="{B85A2729-83A3-4620-9BBB-38B65B533BF3}"/>
-    <hyperlink ref="C117" r:id="rId44" xr:uid="{565BF175-4242-44DA-A997-E2A48218ECF0}"/>
+    <hyperlink ref="C133" r:id="rId38" xr:uid="{BCDEBE63-B57B-43A8-AF62-602F20CAFE86}"/>
+    <hyperlink ref="C129" r:id="rId39" xr:uid="{1E1B47C2-0536-488B-B3B3-FF62383B6F35}"/>
+    <hyperlink ref="C127" r:id="rId40" xr:uid="{ABE47253-802C-438C-8EBF-8B9A3C616B04}"/>
+    <hyperlink ref="C124" r:id="rId41" xr:uid="{783E043C-B8E7-4321-9DF8-F25369B4E2BE}"/>
+    <hyperlink ref="C122" r:id="rId42" xr:uid="{9DC00A52-D7A7-426E-9B24-F2D24D5CAAEA}"/>
+    <hyperlink ref="C119" r:id="rId43" xr:uid="{B85A2729-83A3-4620-9BBB-38B65B533BF3}"/>
+    <hyperlink ref="C118" r:id="rId44" xr:uid="{565BF175-4242-44DA-A997-E2A48218ECF0}"/>
     <hyperlink ref="C108" r:id="rId45" xr:uid="{1AC2C38E-F15D-4D95-887A-284DF240403C}"/>
     <hyperlink ref="C84" r:id="rId46" xr:uid="{9946A93C-8872-4300-BD66-3FDD9EC5CC69}"/>
     <hyperlink ref="C78" r:id="rId47" xr:uid="{060F7AA6-4151-4640-9125-EB05725D5C4E}"/>
@@ -3803,7 +5317,3880 @@
     <hyperlink ref="C55" r:id="rId51" xr:uid="{49603C16-1494-480F-AF14-8DD65509D0A0}"/>
     <hyperlink ref="C54" r:id="rId52" xr:uid="{EE2BA59D-84E1-4A3C-86BD-E9E0C33D7DFB}"/>
     <hyperlink ref="C45" r:id="rId53" xr:uid="{642DD3F3-46F4-448D-BD86-703F11F37A10}"/>
+    <hyperlink ref="C27" r:id="rId54" xr:uid="{6A2EC7FD-C5E4-4878-B24C-5A3822FDA52B}"/>
+    <hyperlink ref="C117" r:id="rId55" xr:uid="{D24EA6FA-6E4E-4F6D-96CE-0E096CF1BBCC}"/>
+    <hyperlink ref="C121" r:id="rId56" xr:uid="{8C229110-07F4-4D42-ADC4-3E9559D7F465}"/>
+    <hyperlink ref="H116" r:id="rId57" xr:uid="{EDB81DBC-BF05-461A-B3E4-02EE2A7D6667}"/>
+    <hyperlink ref="C2" r:id="rId58" xr:uid="{D12C6D83-DFAE-4334-8F0A-1953413B9F78}"/>
+    <hyperlink ref="C96" r:id="rId59" xr:uid="{69472DBD-7062-47A8-B0FE-E79C269F58AB}"/>
+    <hyperlink ref="C125" r:id="rId60" xr:uid="{18B4DFA8-35D8-4799-8D53-71C3CC5CCF65}"/>
+    <hyperlink ref="C145" r:id="rId61" xr:uid="{4D949951-0104-4AB8-8B43-7AD5FC2029D8}"/>
+    <hyperlink ref="C144" r:id="rId62" xr:uid="{96900B3C-9A82-4FCA-A99B-DA7956113148}"/>
+    <hyperlink ref="C149" r:id="rId63" xr:uid="{D0421B36-0296-4376-A390-5741E7654B52}"/>
+    <hyperlink ref="C146" r:id="rId64" xr:uid="{B084E596-0EAD-4841-8581-A7F1A096F217}"/>
+    <hyperlink ref="C147" r:id="rId65" xr:uid="{C920FBFA-CB69-4F7D-8EA6-D7420E7EF080}"/>
+    <hyperlink ref="C46" r:id="rId66" xr:uid="{03EEA6E0-6E61-41DA-A8CD-C97AD4F67B20}"/>
+    <hyperlink ref="C101" r:id="rId67" xr:uid="{6A37F3EC-DBAD-4730-9D2E-C8FE8F5BE4B2}"/>
+    <hyperlink ref="C80" r:id="rId68" xr:uid="{EB7B19AD-7F59-4E34-9419-EDE502C0635E}"/>
+    <hyperlink ref="C47" r:id="rId69" xr:uid="{5D6E3871-87ED-4BDF-9D0C-DCFB58CFC5D4}"/>
+    <hyperlink ref="C89" r:id="rId70" xr:uid="{67EA448E-10ED-469A-B7F9-17E332E689A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219527C3-D470-44BA-9BC6-65C493533788}">
+  <dimension ref="A1:H178"/>
+  <sheetViews>
+    <sheetView topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="C179" sqref="C179"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>439</v>
+      </c>
+      <c r="F10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>442</v>
+      </c>
+      <c r="G15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>440</v>
+      </c>
+      <c r="G16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>439</v>
+      </c>
+      <c r="G17" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>267</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" t="s">
+        <v>267</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>436</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>440</v>
+      </c>
+      <c r="G28" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>437</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>440</v>
+      </c>
+      <c r="G30" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" t="s">
+        <v>423</v>
+      </c>
+      <c r="G31" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>438</v>
+      </c>
+      <c r="D33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" t="s">
+        <v>440</v>
+      </c>
+      <c r="G33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>277</v>
+      </c>
+      <c r="D35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D40" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>435</v>
+      </c>
+      <c r="D41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D45" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" t="s">
+        <v>442</v>
+      </c>
+      <c r="F46" t="s">
+        <v>426</v>
+      </c>
+      <c r="G46" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>321</v>
+      </c>
+      <c r="D49" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" t="s">
+        <v>439</v>
+      </c>
+      <c r="F49" t="s">
+        <v>75</v>
+      </c>
+      <c r="G49" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" t="s">
+        <v>442</v>
+      </c>
+      <c r="G50" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" t="s">
+        <v>439</v>
+      </c>
+      <c r="F51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G51" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D54" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D55" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D56" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D57" t="s">
+        <v>328</v>
+      </c>
+      <c r="E57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" t="s">
+        <v>442</v>
+      </c>
+      <c r="G58" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D59" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" t="s">
+        <v>267</v>
+      </c>
+      <c r="G60" t="s">
+        <v>322</v>
+      </c>
+      <c r="H60" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D61" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D62" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>269</v>
+      </c>
+      <c r="D63" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D64" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65" t="s">
+        <v>439</v>
+      </c>
+      <c r="F65" t="s">
+        <v>174</v>
+      </c>
+      <c r="G65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>100</v>
+      </c>
+      <c r="D66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" t="s">
+        <v>440</v>
+      </c>
+      <c r="G66" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E67" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>103</v>
+      </c>
+      <c r="D68" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" t="s">
+        <v>267</v>
+      </c>
+      <c r="F68" t="s">
+        <v>174</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>105</v>
+      </c>
+      <c r="D69" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D71" t="s">
+        <v>109</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>270</v>
+      </c>
+      <c r="D72" t="s">
+        <v>110</v>
+      </c>
+      <c r="E72" t="s">
+        <v>24</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73" t="s">
+        <v>112</v>
+      </c>
+      <c r="E73" t="s">
+        <v>423</v>
+      </c>
+      <c r="G73" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D74" t="s">
+        <v>114</v>
+      </c>
+      <c r="E74" t="s">
+        <v>27</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D75" t="s">
+        <v>115</v>
+      </c>
+      <c r="E75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>116</v>
+      </c>
+      <c r="D76" t="s">
+        <v>117</v>
+      </c>
+      <c r="E76" t="s">
+        <v>442</v>
+      </c>
+      <c r="G76" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D77" t="s">
+        <v>118</v>
+      </c>
+      <c r="E77" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D78" t="s">
+        <v>119</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>120</v>
+      </c>
+      <c r="D79" t="s">
+        <v>121</v>
+      </c>
+      <c r="E79" t="s">
+        <v>439</v>
+      </c>
+      <c r="F79" t="s">
+        <v>346</v>
+      </c>
+      <c r="G79" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>123</v>
+      </c>
+      <c r="D80" t="s">
+        <v>122</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D81" t="s">
+        <v>124</v>
+      </c>
+      <c r="E81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>125</v>
+      </c>
+      <c r="D82" t="s">
+        <v>126</v>
+      </c>
+      <c r="E82" t="s">
+        <v>442</v>
+      </c>
+      <c r="G82" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>127</v>
+      </c>
+      <c r="D83" t="s">
+        <v>128</v>
+      </c>
+      <c r="E83" t="s">
+        <v>423</v>
+      </c>
+      <c r="G83" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D84" t="s">
+        <v>129</v>
+      </c>
+      <c r="E84" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>271</v>
+      </c>
+      <c r="D85" t="s">
+        <v>130</v>
+      </c>
+      <c r="E85" t="s">
+        <v>24</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D86" t="s">
+        <v>131</v>
+      </c>
+      <c r="E86" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>132</v>
+      </c>
+      <c r="D87" t="s">
+        <v>133</v>
+      </c>
+      <c r="E87" t="s">
+        <v>267</v>
+      </c>
+      <c r="F87" t="s">
+        <v>174</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D88" t="s">
+        <v>134</v>
+      </c>
+      <c r="E88" t="s">
+        <v>18</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D89" t="s">
+        <v>135</v>
+      </c>
+      <c r="E89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D90" t="s">
+        <v>136</v>
+      </c>
+      <c r="E90" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D91" t="s">
+        <v>137</v>
+      </c>
+      <c r="E91" t="s">
+        <v>18</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>138</v>
+      </c>
+      <c r="D92" t="s">
+        <v>139</v>
+      </c>
+      <c r="E92" t="s">
+        <v>267</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D93" t="s">
+        <v>140</v>
+      </c>
+      <c r="E93" t="s">
+        <v>18</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>272</v>
+      </c>
+      <c r="D94" t="s">
+        <v>141</v>
+      </c>
+      <c r="E94" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>142</v>
+      </c>
+      <c r="D95" t="s">
+        <v>143</v>
+      </c>
+      <c r="E95" t="s">
+        <v>439</v>
+      </c>
+      <c r="G95" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D96" t="s">
+        <v>145</v>
+      </c>
+      <c r="E96" t="s">
+        <v>27</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D97" t="s">
+        <v>146</v>
+      </c>
+      <c r="E97" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>147</v>
+      </c>
+      <c r="D98" t="s">
+        <v>148</v>
+      </c>
+      <c r="E98" t="s">
+        <v>18</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>273</v>
+      </c>
+      <c r="D99" t="s">
+        <v>149</v>
+      </c>
+      <c r="E99" t="s">
+        <v>24</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>150</v>
+      </c>
+      <c r="D100" t="s">
+        <v>151</v>
+      </c>
+      <c r="E100" t="s">
+        <v>18</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>152</v>
+      </c>
+      <c r="D101" t="s">
+        <v>153</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>154</v>
+      </c>
+      <c r="D102" t="s">
+        <v>155</v>
+      </c>
+      <c r="E102" t="s">
+        <v>439</v>
+      </c>
+      <c r="F102" t="s">
+        <v>174</v>
+      </c>
+      <c r="G102" t="s">
+        <v>174</v>
+      </c>
+      <c r="H102" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>156</v>
+      </c>
+      <c r="D103" t="s">
+        <v>157</v>
+      </c>
+      <c r="E103" t="s">
+        <v>27</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>274</v>
+      </c>
+      <c r="D104" t="s">
+        <v>158</v>
+      </c>
+      <c r="E104" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>159</v>
+      </c>
+      <c r="D105" t="s">
+        <v>160</v>
+      </c>
+      <c r="E105" t="s">
+        <v>24</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>161</v>
+      </c>
+      <c r="D106" t="s">
+        <v>162</v>
+      </c>
+      <c r="E106" t="s">
+        <v>440</v>
+      </c>
+      <c r="G106" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>275</v>
+      </c>
+      <c r="D107" t="s">
+        <v>163</v>
+      </c>
+      <c r="E107" t="s">
+        <v>24</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D108" t="s">
+        <v>164</v>
+      </c>
+      <c r="E108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>165</v>
+      </c>
+      <c r="D109" t="s">
+        <v>166</v>
+      </c>
+      <c r="E109" t="s">
+        <v>439</v>
+      </c>
+      <c r="F109" t="s">
+        <v>174</v>
+      </c>
+      <c r="G109" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>167</v>
+      </c>
+      <c r="D110" t="s">
+        <v>168</v>
+      </c>
+      <c r="E110" t="s">
+        <v>442</v>
+      </c>
+      <c r="G110" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>169</v>
+      </c>
+      <c r="D111" t="s">
+        <v>170</v>
+      </c>
+      <c r="E111" t="s">
+        <v>267</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>276</v>
+      </c>
+      <c r="D112" t="s">
+        <v>171</v>
+      </c>
+      <c r="E112" t="s">
+        <v>24</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>172</v>
+      </c>
+      <c r="D113" t="s">
+        <v>173</v>
+      </c>
+      <c r="E113" t="s">
+        <v>439</v>
+      </c>
+      <c r="F113" t="s">
+        <v>174</v>
+      </c>
+      <c r="G113" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D114" t="s">
+        <v>175</v>
+      </c>
+      <c r="E114" t="s">
+        <v>18</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>176</v>
+      </c>
+      <c r="D115" t="s">
+        <v>177</v>
+      </c>
+      <c r="E115" t="s">
+        <v>18</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>178</v>
+      </c>
+      <c r="D116" t="s">
+        <v>179</v>
+      </c>
+      <c r="E116" t="s">
+        <v>439</v>
+      </c>
+      <c r="F116" t="s">
+        <v>174</v>
+      </c>
+      <c r="G116" t="s">
+        <v>322</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D117" t="s">
+        <v>180</v>
+      </c>
+      <c r="E117" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D118" t="s">
+        <v>422</v>
+      </c>
+      <c r="E118" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D119" t="s">
+        <v>181</v>
+      </c>
+      <c r="E119" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>280</v>
+      </c>
+      <c r="D120" t="s">
+        <v>182</v>
+      </c>
+      <c r="E120" t="s">
+        <v>24</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D121" t="s">
+        <v>184</v>
+      </c>
+      <c r="E121" t="s">
+        <v>423</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D122" t="s">
+        <v>185</v>
+      </c>
+      <c r="E122" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>186</v>
+      </c>
+      <c r="D123" t="s">
+        <v>187</v>
+      </c>
+      <c r="E123" t="s">
+        <v>267</v>
+      </c>
+      <c r="G123" t="s">
+        <v>322</v>
+      </c>
+      <c r="H123" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D124" t="s">
+        <v>188</v>
+      </c>
+      <c r="E124" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D125" t="s">
+        <v>190</v>
+      </c>
+      <c r="E125" t="s">
+        <v>27</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
+        <v>191</v>
+      </c>
+      <c r="D126" t="s">
+        <v>192</v>
+      </c>
+      <c r="E126" t="s">
+        <v>423</v>
+      </c>
+      <c r="G126" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D127" t="s">
+        <v>193</v>
+      </c>
+      <c r="E127" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D128" t="s">
+        <v>194</v>
+      </c>
+      <c r="E128" t="s">
+        <v>18</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D129" t="s">
+        <v>195</v>
+      </c>
+      <c r="E129" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
+        <v>196</v>
+      </c>
+      <c r="D130" t="s">
+        <v>197</v>
+      </c>
+      <c r="E130" t="s">
+        <v>442</v>
+      </c>
+      <c r="G130" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
+        <v>281</v>
+      </c>
+      <c r="D131" t="s">
+        <v>198</v>
+      </c>
+      <c r="E131" t="s">
+        <v>24</v>
+      </c>
+      <c r="F131" t="s">
+        <v>282</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>199</v>
+      </c>
+      <c r="D132" t="s">
+        <v>200</v>
+      </c>
+      <c r="E132" t="s">
+        <v>439</v>
+      </c>
+      <c r="F132" t="s">
+        <v>441</v>
+      </c>
+      <c r="G132" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D133" t="s">
+        <v>201</v>
+      </c>
+      <c r="E133" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D134" t="s">
+        <v>202</v>
+      </c>
+      <c r="E134" t="s">
+        <v>18</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>283</v>
+      </c>
+      <c r="D135" t="s">
+        <v>203</v>
+      </c>
+      <c r="E135" t="s">
+        <v>24</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>204</v>
+      </c>
+      <c r="D136" t="s">
+        <v>205</v>
+      </c>
+      <c r="E136" t="s">
+        <v>267</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
+        <v>284</v>
+      </c>
+      <c r="D137" t="s">
+        <v>206</v>
+      </c>
+      <c r="E137" t="s">
+        <v>24</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>285</v>
+      </c>
+      <c r="D138" t="s">
+        <v>207</v>
+      </c>
+      <c r="E138" t="s">
+        <v>24</v>
+      </c>
+      <c r="G138" t="s">
+        <v>322</v>
+      </c>
+      <c r="H138" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>208</v>
+      </c>
+      <c r="D139" t="s">
+        <v>209</v>
+      </c>
+      <c r="E139" t="s">
+        <v>27</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>210</v>
+      </c>
+      <c r="D140" t="s">
+        <v>211</v>
+      </c>
+      <c r="E140" t="s">
+        <v>440</v>
+      </c>
+      <c r="F140" t="s">
+        <v>174</v>
+      </c>
+      <c r="G140" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
+        <v>212</v>
+      </c>
+      <c r="D141" t="s">
+        <v>213</v>
+      </c>
+      <c r="E141" t="s">
+        <v>18</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D142" t="s">
+        <v>396</v>
+      </c>
+      <c r="E142" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D143" t="s">
+        <v>399</v>
+      </c>
+      <c r="E143" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D144" t="s">
+        <v>400</v>
+      </c>
+      <c r="E144" t="s">
+        <v>24</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D145" t="s">
+        <v>402</v>
+      </c>
+      <c r="E145" t="s">
+        <v>24</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D146" t="s">
+        <v>404</v>
+      </c>
+      <c r="E146" t="s">
+        <v>18</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D147" t="s">
+        <v>404</v>
+      </c>
+      <c r="E147" t="s">
+        <v>18</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D148" t="s">
+        <v>407</v>
+      </c>
+      <c r="E148" t="s">
+        <v>24</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D149" t="s">
+        <v>407</v>
+      </c>
+      <c r="E149" t="s">
+        <v>24</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D150" t="s">
+        <v>410</v>
+      </c>
+      <c r="E150" t="s">
+        <v>18</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D151" t="s">
+        <v>412</v>
+      </c>
+      <c r="E151" t="s">
+        <v>18</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>415</v>
+      </c>
+      <c r="D152" t="s">
+        <v>414</v>
+      </c>
+      <c r="E152" t="s">
+        <v>440</v>
+      </c>
+      <c r="G152" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D153" t="s">
+        <v>416</v>
+      </c>
+      <c r="E153" t="s">
+        <v>18</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D154" t="s">
+        <v>417</v>
+      </c>
+      <c r="E154" t="s">
+        <v>18</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D155" t="s">
+        <v>418</v>
+      </c>
+      <c r="E155" t="s">
+        <v>18</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>449</v>
+      </c>
+      <c r="D156" t="s">
+        <v>452</v>
+      </c>
+      <c r="E156" t="s">
+        <v>450</v>
+      </c>
+      <c r="H156" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>449</v>
+      </c>
+      <c r="D157" t="s">
+        <v>449</v>
+      </c>
+      <c r="E157" t="s">
+        <v>450</v>
+      </c>
+      <c r="H157" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C158" t="s">
+        <v>454</v>
+      </c>
+      <c r="D158" t="s">
+        <v>455</v>
+      </c>
+      <c r="E158" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C159" t="s">
+        <v>456</v>
+      </c>
+      <c r="D159" t="s">
+        <v>26</v>
+      </c>
+      <c r="E159" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C160" t="s">
+        <v>457</v>
+      </c>
+      <c r="D160" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="161" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C161" t="s">
+        <v>459</v>
+      </c>
+      <c r="D161" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="162" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C162" t="s">
+        <v>461</v>
+      </c>
+      <c r="D162" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="163" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C163" t="s">
+        <v>463</v>
+      </c>
+      <c r="D163" t="s">
+        <v>396</v>
+      </c>
+      <c r="H163" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="164" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C164" t="s">
+        <v>465</v>
+      </c>
+      <c r="D164" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="165" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C165" t="s">
+        <v>467</v>
+      </c>
+      <c r="D165" t="s">
+        <v>468</v>
+      </c>
+      <c r="E165" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="166" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C166" t="s">
+        <v>472</v>
+      </c>
+      <c r="D166" t="s">
+        <v>188</v>
+      </c>
+      <c r="E166" t="s">
+        <v>450</v>
+      </c>
+      <c r="F166" t="s">
+        <v>471</v>
+      </c>
+      <c r="H166" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="167" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C167" t="s">
+        <v>473</v>
+      </c>
+      <c r="D167" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="168" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C168" t="s">
+        <v>475</v>
+      </c>
+      <c r="D168" t="s">
+        <v>476</v>
+      </c>
+      <c r="H168" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="169" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C169" t="s">
+        <v>478</v>
+      </c>
+      <c r="D169" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="170" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C170" t="s">
+        <v>480</v>
+      </c>
+      <c r="D170" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="171" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C171" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D171" t="s">
+        <v>483</v>
+      </c>
+      <c r="H171" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="172" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C172" t="s">
+        <v>486</v>
+      </c>
+      <c r="D172" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="173" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C173" t="s">
+        <v>487</v>
+      </c>
+      <c r="D173" t="s">
+        <v>488</v>
+      </c>
+      <c r="F173" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="174" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C174" t="s">
+        <v>489</v>
+      </c>
+      <c r="D174" t="s">
+        <v>490</v>
+      </c>
+      <c r="F174" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="175" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C175" t="s">
+        <v>492</v>
+      </c>
+      <c r="D175" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="176" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C176" t="s">
+        <v>495</v>
+      </c>
+      <c r="D176" t="s">
+        <v>496</v>
+      </c>
+      <c r="F176" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="177" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C177" t="s">
+        <v>497</v>
+      </c>
+      <c r="D177" t="s">
+        <v>498</v>
+      </c>
+      <c r="F177" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="178" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C178" t="s">
+        <v>499</v>
+      </c>
+      <c r="D178" t="s">
+        <v>500</v>
+      </c>
+      <c r="E178" t="s">
+        <v>469</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C23" r:id="rId1" xr:uid="{7941C7F6-BE11-4B43-95EF-0D9BC4FE065C}"/>
+    <hyperlink ref="C22" r:id="rId2" xr:uid="{27B4796D-2DCC-4BF5-8778-B783C6B7C5D0}"/>
+    <hyperlink ref="C21" r:id="rId3" xr:uid="{417A3B6A-ABD6-4E04-AF8E-3FEB2FD758D3}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{F1640CF8-85CA-47B4-9848-C8BEF784168E}"/>
+    <hyperlink ref="C14" r:id="rId5" xr:uid="{CE6093C3-6AAA-46C3-AC31-90E7007E8B38}"/>
+    <hyperlink ref="C18" r:id="rId6" xr:uid="{5E0ED6A7-1B1E-4BC9-B06A-E32DF7EA7810}"/>
+    <hyperlink ref="C25" r:id="rId7" xr:uid="{E79264D0-D0B9-44AB-ABAC-BD41D738CA58}"/>
+    <hyperlink ref="C29" r:id="rId8" xr:uid="{3C410E78-2914-4A99-92F9-72399D43404F}"/>
+    <hyperlink ref="C34" r:id="rId9" xr:uid="{81B59AFE-A488-44D8-B75C-2122EA53F150}"/>
+    <hyperlink ref="C38" r:id="rId10" xr:uid="{90FCA9AA-051B-44DE-81CB-EB153FBAECD5}"/>
+    <hyperlink ref="C44" r:id="rId11" xr:uid="{8FEDE392-6AF9-4445-8363-59CA6EE26225}"/>
+    <hyperlink ref="C48" r:id="rId12" xr:uid="{6F1CA5A3-26F3-481D-9498-0CC1C2533565}"/>
+    <hyperlink ref="C52" r:id="rId13" xr:uid="{D878AF02-E78C-4957-940D-97ACE7A8F6AC}"/>
+    <hyperlink ref="C57" r:id="rId14" xr:uid="{A6CE7171-5390-4562-ADB8-31660DF9CB07}"/>
+    <hyperlink ref="C59" r:id="rId15" xr:uid="{87E85F73-6C47-4A1E-81BD-6B1587419B4E}"/>
+    <hyperlink ref="C61" r:id="rId16" xr:uid="{0AF29A8D-F4D6-434F-BB4E-7679AE36FEFA}"/>
+    <hyperlink ref="C64" r:id="rId17" xr:uid="{DFCD3CFE-7657-4CBB-8620-EA7351319481}"/>
+    <hyperlink ref="C67" r:id="rId18" xr:uid="{F77CB4B8-7BFE-4743-90B6-6E92E68F69F3}"/>
+    <hyperlink ref="C74" r:id="rId19" xr:uid="{A224B092-AE4E-4AE5-A43C-B40A69803FC1}"/>
+    <hyperlink ref="C75" r:id="rId20" xr:uid="{576FEE2D-1DDD-4D09-8E7E-3E46FC2E879B}"/>
+    <hyperlink ref="C77" r:id="rId21" xr:uid="{42868F34-66EC-4A62-BD46-0E70B7A856BE}"/>
+    <hyperlink ref="C81" r:id="rId22" xr:uid="{E34EAF16-53C0-48B2-A515-47DD26488BB4}"/>
+    <hyperlink ref="C86" r:id="rId23" xr:uid="{00FBAB5D-6E92-4909-9F31-80BB764567C4}"/>
+    <hyperlink ref="C88" r:id="rId24" xr:uid="{1A3E4BD4-7371-42C9-99C1-B01AAE15FEB1}"/>
+    <hyperlink ref="C90" r:id="rId25" xr:uid="{591232E8-8FED-42F2-A379-ED7E3BB3A29E}"/>
+    <hyperlink ref="C91" r:id="rId26" xr:uid="{E7FA64F1-7602-4A51-8430-5327BCC96C71}"/>
+    <hyperlink ref="C93" r:id="rId27" xr:uid="{87166E22-8621-4E79-B10A-ADE99382592E}"/>
+    <hyperlink ref="C97" r:id="rId28" xr:uid="{F886177F-128D-41E2-8151-228AF94E331C}"/>
+    <hyperlink ref="C114" r:id="rId29" xr:uid="{17B1AEEB-FC31-4690-8176-64EEDE29BB6C}"/>
+    <hyperlink ref="C128" r:id="rId30" xr:uid="{7C5FF3A5-14FD-47A4-BC41-25DE8AFC1C0C}"/>
+    <hyperlink ref="C134" r:id="rId31" xr:uid="{88B6CB38-D42D-4729-8425-CF038E626B3F}"/>
+    <hyperlink ref="C4" r:id="rId32" xr:uid="{2C74E79B-2951-4CF5-BB41-D2EAF698B949}"/>
+    <hyperlink ref="C20" r:id="rId33" xr:uid="{D2648E53-6272-4DDC-A59D-A45A21A2278A}"/>
+    <hyperlink ref="C36" r:id="rId34" xr:uid="{232EDA02-A2C4-4E07-9363-5C94B87E1950}"/>
+    <hyperlink ref="C39" r:id="rId35" xr:uid="{27F701F4-6C4A-49BF-8861-A6D3A0286782}"/>
+    <hyperlink ref="C40" r:id="rId36" xr:uid="{14E1451A-91E1-4398-AF97-051C9303CCC4}"/>
+    <hyperlink ref="C42" r:id="rId37" xr:uid="{4AAE31D0-A609-4F55-8ABC-1138D5ECC816}"/>
+    <hyperlink ref="C133" r:id="rId38" xr:uid="{868F6E61-EEC1-4715-872A-20ED6518A45D}"/>
+    <hyperlink ref="C129" r:id="rId39" xr:uid="{981380E1-8320-4A79-94C1-14EAE4BFE8FA}"/>
+    <hyperlink ref="C127" r:id="rId40" xr:uid="{37FCA4AE-8D57-4DEC-96F8-19E30CD2E71E}"/>
+    <hyperlink ref="C124" r:id="rId41" xr:uid="{59873EAA-716D-485D-BBF0-2C743DF11B1F}"/>
+    <hyperlink ref="C122" r:id="rId42" xr:uid="{2CECDCC3-1DBF-42B4-9D1E-37A3722D5C11}"/>
+    <hyperlink ref="C119" r:id="rId43" xr:uid="{6A2D1335-ED24-4E7F-A10C-D49BF5E82291}"/>
+    <hyperlink ref="C118" r:id="rId44" xr:uid="{74882BE9-8CB3-469F-987E-28512AF59C0C}"/>
+    <hyperlink ref="C108" r:id="rId45" xr:uid="{B55C972A-5563-4134-B11E-93D9E325AC2E}"/>
+    <hyperlink ref="C84" r:id="rId46" xr:uid="{03AE8810-2543-4777-9380-7C84D03BC90A}"/>
+    <hyperlink ref="C78" r:id="rId47" xr:uid="{C02D6A69-144C-428C-8D75-4CCF39937258}"/>
+    <hyperlink ref="C71" r:id="rId48" xr:uid="{A4C281A7-D68E-4000-BA99-7B1F17CD7C0F}"/>
+    <hyperlink ref="C62" r:id="rId49" xr:uid="{F0183A11-AA51-4BAF-838E-BF3A9889044F}"/>
+    <hyperlink ref="C56" r:id="rId50" xr:uid="{26F87618-FDDF-4658-9197-7FDA0727EED5}"/>
+    <hyperlink ref="C55" r:id="rId51" xr:uid="{3D9ED3B8-DA16-45D4-89D0-72993E33B0C0}"/>
+    <hyperlink ref="C54" r:id="rId52" xr:uid="{7119CBEC-E8F9-49A5-80A5-4A8513A6B291}"/>
+    <hyperlink ref="C45" r:id="rId53" xr:uid="{A3F5B074-C662-46BB-A53C-CB13275B5020}"/>
+    <hyperlink ref="C27" r:id="rId54" xr:uid="{CA899804-7DA6-4010-B790-4B5828F700D5}"/>
+    <hyperlink ref="C117" r:id="rId55" xr:uid="{4A6E47B6-0ED3-4A3C-9F3D-E934EC35B4A5}"/>
+    <hyperlink ref="C121" r:id="rId56" xr:uid="{3C24D381-DFC7-4F11-A9FA-B59F58E7A43C}"/>
+    <hyperlink ref="H116" r:id="rId57" xr:uid="{61F7F273-11C2-4D5B-A1E1-51E8F84B91EA}"/>
+    <hyperlink ref="C2" r:id="rId58" xr:uid="{E1EB2201-0B3A-4854-980A-F2002DF8AD59}"/>
+    <hyperlink ref="C96" r:id="rId59" xr:uid="{DD2C2836-2F67-4876-8FF1-5298F84D2514}"/>
+    <hyperlink ref="C125" r:id="rId60" xr:uid="{37E76865-E236-4524-A455-0CD73E43FE84}"/>
+    <hyperlink ref="C149" r:id="rId61" xr:uid="{82050255-AFF8-4E18-A9A4-62207587E984}"/>
+    <hyperlink ref="C148" r:id="rId62" xr:uid="{F088CE73-2A66-40AC-B7E4-ACCFCB4C0683}"/>
+    <hyperlink ref="C146" r:id="rId63" xr:uid="{E301B638-9A37-402E-A78F-99C7771217FD}"/>
+    <hyperlink ref="C147" r:id="rId64" xr:uid="{240A18A2-A94B-4BDC-8507-D5B9E2E5D5E3}"/>
+    <hyperlink ref="C155" r:id="rId65" xr:uid="{E033334B-B3C5-4D64-AE03-3A2F1878E749}"/>
+    <hyperlink ref="C154" r:id="rId66" xr:uid="{F1B81E9D-ECA2-4DFC-8BE3-97C465DD7676}"/>
+    <hyperlink ref="C153" r:id="rId67" xr:uid="{A4D09028-BBE1-47AB-A793-D080E730A03D}"/>
+    <hyperlink ref="C150" r:id="rId68" xr:uid="{60C3A4D8-0DD6-482E-89A5-683BB5AA880D}"/>
+    <hyperlink ref="C151" r:id="rId69" xr:uid="{213121CE-223F-4870-9606-0F76119BB027}"/>
+    <hyperlink ref="C46" r:id="rId70" xr:uid="{34188618-B823-412F-A961-8CCA31ADBA0F}"/>
+    <hyperlink ref="C89" r:id="rId71" xr:uid="{4C6110B7-D33C-4402-BD02-ECA55CDE21EF}"/>
+    <hyperlink ref="C171" r:id="rId72" xr:uid="{EB45089D-9F97-4285-A989-E36DEACA4095}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DF1353-47F0-4AB6-9C89-CE6A48746A82}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/union_data.xlsx
+++ b/union_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexBusch\Documents\GitHub\industrial_action\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BDFDB0-1C28-4208-B79B-4275FD663965}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F025B5D-B855-4765-A637-6D4CD88E2D15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10500" xr2:uid="{55DB6E5A-4C35-45C3-9C4F-265E93AFAEF7}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="504">
   <si>
     <t>U-Union</t>
   </si>
@@ -1530,6 +1530,15 @@
   </si>
   <si>
     <t xml:space="preserve">Kiel </t>
+  </si>
+  <si>
+    <t>https://www.igmetall.de/presse/pressemitteilungen/</t>
+  </si>
+  <si>
+    <t>https://rosenheim.igmetall.de/aktuelles/</t>
+  </si>
+  <si>
+    <t>https://rendsburg.igmetall.de/aktuell/</t>
   </si>
 </sst>
 </file>
@@ -1895,7 +1904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF38B2E-D1B8-4839-8784-A9099D704EE1}">
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
       <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
@@ -4283,8 +4292,8 @@
       <c r="B107" t="s">
         <v>3</v>
       </c>
-      <c r="C107" t="s">
-        <v>275</v>
+      <c r="C107" s="1" t="s">
+        <v>503</v>
       </c>
       <c r="D107" t="s">
         <v>163</v>
@@ -4372,8 +4381,8 @@
       <c r="B111" t="s">
         <v>3</v>
       </c>
-      <c r="C111" t="s">
-        <v>169</v>
+      <c r="C111" s="1" t="s">
+        <v>502</v>
       </c>
       <c r="D111" t="s">
         <v>170</v>
@@ -5230,7 +5239,7 @@
         <v>414</v>
       </c>
       <c r="E148" t="s">
-        <v>440</v>
+        <v>13</v>
       </c>
       <c r="G148" t="s">
         <v>322</v>
@@ -5244,7 +5253,7 @@
         <v>3</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>432</v>
+        <v>501</v>
       </c>
       <c r="D149" t="s">
         <v>416</v>
@@ -5326,14 +5335,16 @@
     <hyperlink ref="C125" r:id="rId60" xr:uid="{18B4DFA8-35D8-4799-8D53-71C3CC5CCF65}"/>
     <hyperlink ref="C145" r:id="rId61" xr:uid="{4D949951-0104-4AB8-8B43-7AD5FC2029D8}"/>
     <hyperlink ref="C144" r:id="rId62" xr:uid="{96900B3C-9A82-4FCA-A99B-DA7956113148}"/>
-    <hyperlink ref="C149" r:id="rId63" xr:uid="{D0421B36-0296-4376-A390-5741E7654B52}"/>
-    <hyperlink ref="C146" r:id="rId64" xr:uid="{B084E596-0EAD-4841-8581-A7F1A096F217}"/>
-    <hyperlink ref="C147" r:id="rId65" xr:uid="{C920FBFA-CB69-4F7D-8EA6-D7420E7EF080}"/>
-    <hyperlink ref="C46" r:id="rId66" xr:uid="{03EEA6E0-6E61-41DA-A8CD-C97AD4F67B20}"/>
-    <hyperlink ref="C101" r:id="rId67" xr:uid="{6A37F3EC-DBAD-4730-9D2E-C8FE8F5BE4B2}"/>
-    <hyperlink ref="C80" r:id="rId68" xr:uid="{EB7B19AD-7F59-4E34-9419-EDE502C0635E}"/>
-    <hyperlink ref="C47" r:id="rId69" xr:uid="{5D6E3871-87ED-4BDF-9D0C-DCFB58CFC5D4}"/>
-    <hyperlink ref="C89" r:id="rId70" xr:uid="{67EA448E-10ED-469A-B7F9-17E332E689A9}"/>
+    <hyperlink ref="C146" r:id="rId63" xr:uid="{B084E596-0EAD-4841-8581-A7F1A096F217}"/>
+    <hyperlink ref="C147" r:id="rId64" xr:uid="{C920FBFA-CB69-4F7D-8EA6-D7420E7EF080}"/>
+    <hyperlink ref="C46" r:id="rId65" xr:uid="{03EEA6E0-6E61-41DA-A8CD-C97AD4F67B20}"/>
+    <hyperlink ref="C101" r:id="rId66" xr:uid="{6A37F3EC-DBAD-4730-9D2E-C8FE8F5BE4B2}"/>
+    <hyperlink ref="C80" r:id="rId67" xr:uid="{EB7B19AD-7F59-4E34-9419-EDE502C0635E}"/>
+    <hyperlink ref="C47" r:id="rId68" xr:uid="{5D6E3871-87ED-4BDF-9D0C-DCFB58CFC5D4}"/>
+    <hyperlink ref="C89" r:id="rId69" xr:uid="{67EA448E-10ED-469A-B7F9-17E332E689A9}"/>
+    <hyperlink ref="C149" r:id="rId70" xr:uid="{465F8FB3-C176-4845-A64F-F9946A0C557A}"/>
+    <hyperlink ref="C111" r:id="rId71" xr:uid="{A7DFF63B-DA63-4DFC-A171-0C3E120A1F53}"/>
+    <hyperlink ref="C107" r:id="rId72" xr:uid="{E91AADE8-F04D-4AF5-9F90-67D915C75480}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
